--- a/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3879,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8339,7 +8339,7 @@
         <v>3</v>
       </c>
       <c r="G107">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>3</v>
       </c>
       <c r="G111">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="G112">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -11558,7 +11558,7 @@
         <v>3</v>
       </c>
       <c r="G149">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -12246,12 +12246,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,Flow- Summer Base Flow,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -12322,12 +12322,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,Flow- Summer Base Flow,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -12395,12 +12395,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -12471,12 +12471,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -12699,12 +12699,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Brook Trout,Brook Trout,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -12778,12 +12778,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,</t>
+          <t>,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -12857,12 +12857,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Cover- Boulders,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,</t>
+          <t>,Cover- Wood,Floodplain Connectivity,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,</t>
+          <t>,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -13015,12 +13015,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,</t>
+          <t>,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -13094,12 +13094,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,</t>
+          <t>,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -13173,12 +13173,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,,Cover- Boulders,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,</t>
+          <t>,,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -13252,12 +13252,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>,Cover- Undercut Banks,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
+          <t>,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -13565,12 +13565,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>,Cover- Wood,Cover- Wood,</t>
+          <t>,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -13716,7 +13716,7 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>3</v>
       </c>
       <c r="G179">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>3</v>
       </c>
       <c r="G180">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L180">
@@ -14032,7 +14032,7 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -15279,12 +15279,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Temperature- Rearing,</t>
+          <t>,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -15355,12 +15355,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,</t>
+          <t>,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -19155,12 +19155,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -19231,12 +19231,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -19307,12 +19307,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -19383,12 +19383,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -19687,7 +19687,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Adult Migration,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -20599,7 +20599,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -22749,7 +22749,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -24746,7 +24746,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -24825,7 +24825,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -26205,7 +26205,7 @@
         <v>3</v>
       </c>
       <c r="G344">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -27054,7 +27054,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -27282,7 +27282,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -27433,7 +27433,7 @@
         <v>3</v>
       </c>
       <c r="G360">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>3</v>
       </c>
       <c r="G365">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>3</v>
       </c>
       <c r="G366">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>3</v>
       </c>
       <c r="G367">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>3</v>
       </c>
       <c r="G369">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>3</v>
       </c>
       <c r="G370">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>3</v>
       </c>
       <c r="G371">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>3</v>
       </c>
       <c r="G372">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>3</v>
       </c>
       <c r="G373">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>3</v>
       </c>
       <c r="G375">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L375">
@@ -29405,7 +29405,7 @@
         <v>3</v>
       </c>
       <c r="G385">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>3</v>
       </c>
       <c r="G386">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>3</v>
       </c>
       <c r="G387">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -29642,7 +29642,7 @@
         <v>3</v>
       </c>
       <c r="G388">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>3</v>
       </c>
       <c r="G389">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>3</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>3</v>
       </c>
       <c r="G397">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>3</v>
       </c>
       <c r="G398">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>3</v>
       </c>
       <c r="G399">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         <v>3</v>
       </c>
       <c r="G400">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -31685,12 +31685,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,</t>
+          <t>,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -31761,7 +31761,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -31989,7 +31989,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -33245,12 +33245,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Floodplain Connectivity,Temperature- Rearing,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -33324,12 +33324,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Temperature- Rearing,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Floodplain Connectivity,Temperature- Rearing,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -33403,12 +33403,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Floodplain Connectivity,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -33482,12 +33482,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -33561,12 +33561,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -33640,12 +33640,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -33719,12 +33719,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -33793,14 +33793,17 @@
       <c r="F442">
         <v>3</v>
       </c>
+      <c r="G442">
+        <v>0.4888888888888889</v>
+      </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -33874,12 +33877,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Boulders,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -33953,12 +33956,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Boulders,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout</t>
+          <t>% Fines/Embeddedness,Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -34032,12 +34035,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -34111,12 +34114,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -34190,12 +34193,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -34266,12 +34269,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Wood,Temperature- Rearing,Cover- Boulders,Cover- Wood,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -34345,12 +34348,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -34424,7 +34427,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -34500,7 +34503,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -34576,7 +34579,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -34652,7 +34655,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -34728,7 +34731,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -34804,7 +34807,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -35224,12 +35227,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Coarse Substrate</t>
+          <t>Coarse Substrate,Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -38926,7 +38929,7 @@
         <v>3</v>
       </c>
       <c r="G532">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
@@ -39005,7 +39008,7 @@
         <v>3</v>
       </c>
       <c r="G533">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
@@ -39084,7 +39087,7 @@
         <v>3</v>
       </c>
       <c r="G534">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
@@ -39163,7 +39166,7 @@
         <v>3</v>
       </c>
       <c r="G535">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
@@ -39242,7 +39245,7 @@
         <v>3</v>
       </c>
       <c r="G536">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
@@ -39321,7 +39324,7 @@
         <v>3</v>
       </c>
       <c r="G537">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
@@ -39480,7 +39483,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39556,7 +39559,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39632,12 +39635,12 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Temperature- Rearing,Brook Trout,Coarse Substrate</t>
+          <t>Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
@@ -39708,12 +39711,12 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Temperature- Rearing,Brook Trout,Coarse Substrate</t>
+          <t>Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -39784,12 +39787,12 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Temperature- Rearing,Brook Trout,Coarse Substrate</t>
+          <t>Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -39860,12 +39863,12 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
@@ -39936,12 +39939,12 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Brook Trout,Cover- Wood,Temperature- Rearing,Brook Trout</t>
+          <t>Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
@@ -40012,12 +40015,12 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Wood,Temperature- Rearing,Brook Trout,Coarse Substrate</t>
+          <t>Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
@@ -40088,12 +40091,12 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Brook Trout,Coarse Substrate,Cover- Wood,Brook Trout,Coarse Substrate</t>
+          <t>Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
@@ -41000,7 +41003,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -41304,7 +41307,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -41379,7 +41382,7 @@
         <v>1</v>
       </c>
       <c r="G564">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
@@ -41398,7 +41401,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L564">
@@ -41915,7 +41918,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -41991,7 +41994,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -42067,7 +42070,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -42523,7 +42526,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -44036,7 +44039,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -44112,7 +44115,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -44188,7 +44191,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44264,7 +44267,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -45946,7 +45949,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Adult Migration,BT Natal Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -46181,12 +46184,12 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Temperature- Rearing,Coarse Substrate</t>
+          <t>Coarse Substrate,Coarse Substrate,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
@@ -46257,12 +46260,12 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,</t>
+          <t>,Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
@@ -46333,12 +46336,12 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Coarse Substrate</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Coarse Substrate,Cover- Wood,Floodplain Connectivity</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
@@ -46923,7 +46926,7 @@
         <v>2</v>
       </c>
       <c r="G645">
-        <v>0.8888888888888888</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="H645" t="inlineStr">
         <is>
@@ -47634,7 +47637,7 @@
         <v>3</v>
       </c>
       <c r="G654">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H654" t="inlineStr">
         <is>
@@ -47713,7 +47716,7 @@
         <v>3</v>
       </c>
       <c r="G655">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H655" t="inlineStr">
         <is>
@@ -49133,7 +49136,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H674" t="inlineStr">
         <is>
@@ -49147,7 +49150,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49212,7 +49215,7 @@
         <v>3</v>
       </c>
       <c r="G675">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H675" t="inlineStr">
         <is>
@@ -49291,7 +49294,7 @@
         <v>3</v>
       </c>
       <c r="G676">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H676" t="inlineStr">
         <is>
@@ -49305,7 +49308,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49370,7 +49373,7 @@
         <v>3</v>
       </c>
       <c r="G677">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H677" t="inlineStr">
         <is>
@@ -49449,7 +49452,7 @@
         <v>3</v>
       </c>
       <c r="G678">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
@@ -49528,7 +49531,7 @@
         <v>3</v>
       </c>
       <c r="G679">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
@@ -49607,7 +49610,7 @@
         <v>3</v>
       </c>
       <c r="G680">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H680" t="inlineStr">
         <is>
@@ -49686,7 +49689,7 @@
         <v>3</v>
       </c>
       <c r="G681">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H681" t="inlineStr">
         <is>
@@ -49765,7 +49768,7 @@
         <v>3</v>
       </c>
       <c r="G682">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H682" t="inlineStr">
         <is>
@@ -49844,7 +49847,7 @@
         <v>3</v>
       </c>
       <c r="G683">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H683" t="inlineStr">
         <is>
@@ -49923,7 +49926,7 @@
         <v>3</v>
       </c>
       <c r="G684">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H684" t="inlineStr">
         <is>
@@ -50002,7 +50005,7 @@
         <v>3</v>
       </c>
       <c r="G685">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
@@ -50081,7 +50084,7 @@
         <v>3</v>
       </c>
       <c r="G686">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H686" t="inlineStr">
         <is>
@@ -50160,7 +50163,7 @@
         <v>3</v>
       </c>
       <c r="G687">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H687" t="inlineStr">
         <is>
@@ -50318,7 +50321,7 @@
         <v>3</v>
       </c>
       <c r="G689">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
@@ -50555,7 +50558,7 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
@@ -50634,7 +50637,7 @@
         <v>3</v>
       </c>
       <c r="G693">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H693" t="inlineStr">
         <is>
@@ -50713,7 +50716,7 @@
         <v>3</v>
       </c>
       <c r="G694">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
@@ -50792,7 +50795,7 @@
         <v>3</v>
       </c>
       <c r="G695">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
@@ -50871,7 +50874,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>0.5333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H696" t="inlineStr">
         <is>
@@ -50950,7 +50953,7 @@
         <v>3</v>
       </c>
       <c r="G697">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
@@ -51187,7 +51190,7 @@
         <v>3</v>
       </c>
       <c r="G700">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H700" t="inlineStr">
         <is>
@@ -51266,7 +51269,7 @@
         <v>3</v>
       </c>
       <c r="G701">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H701" t="inlineStr">
         <is>
@@ -51345,7 +51348,7 @@
         <v>3</v>
       </c>
       <c r="G702">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H702" t="inlineStr">
         <is>
@@ -51424,7 +51427,7 @@
         <v>3</v>
       </c>
       <c r="G703">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H703" t="inlineStr">
         <is>
@@ -51503,11 +51506,11 @@
         <v>3</v>
       </c>
       <c r="G704">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51582,11 +51585,11 @@
         <v>3</v>
       </c>
       <c r="G705">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51662,7 +51665,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51738,7 +51741,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51814,7 +51817,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51890,7 +51893,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51966,7 +51969,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -52042,7 +52045,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Holding and Maturation,Adult Migration</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">

--- a/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="957">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">Beaver Creek North Fork 03</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Coarse Substrate,Coarse Substrate</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Wood</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver Creek South Fork 01</t>
@@ -509,6 +509,9 @@
     <t xml:space="preserve">Chikamin Creek 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiliwist 16-1</t>
   </si>
   <si>
@@ -524,19 +527,16 @@
     <t xml:space="preserve">Spawning and Incubation,Holding and Maturation</t>
   </si>
   <si>
-    <t xml:space="preserve">,Flow- Summer Base Flow,Temperature- Adult Holding</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwaukum Creek 02</t>
   </si>
   <si>
-    <t xml:space="preserve">,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiwaukum Creek 03</t>
   </si>
   <si>
-    <t xml:space="preserve">,Flow- Summer Base Flow</t>
+    <t xml:space="preserve">,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwaukum Creek 04</t>
@@ -650,184 +650,187 @@
     <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
   </si>
   <si>
+    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coulter Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crater Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crater Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crater Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Horse Canyon 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby Canyon 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Derby Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby Canyon 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby Canyon 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Lost River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek Methow 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek (Methow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek Methow 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle Creek (Wenatchee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Winters Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Brook Trout,Cover- Wood,Brook Trout,Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Mile Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Cover- Wood,Floodplain Connectivity,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Cover- Wood,Cover- Wood,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
     <t xml:space="preserve">,,Pool Quantity &amp; Quality,</t>
   </si>
   <si>
-    <t xml:space="preserve">Coulter Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crater Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crater Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crater Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Horse Canyon 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby Canyon 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Derby Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby Canyon 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby Canyon 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamond Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamond Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doe Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Lost River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek Methow 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek (Methow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek Methow 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek Wenatchee 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Creek (Wenatchee)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Winters Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Brook Trout,Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eight Mile Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Cover- Wood,Floodplain Connectivity,Cover- Wood,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
+    <t xml:space="preserve">% Fines/Embeddedness,,Pool Quantity &amp; Quality,</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
   </si>
   <si>
-    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Flow- Summer Base Flow</t>
+    <t xml:space="preserve">,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Flow- Summer Base Flow</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Mills 01</t>
@@ -839,7 +842,7 @@
     <t xml:space="preserve">Adult Non-Spawning</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing</t>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Mills 02</t>
@@ -911,813 +914,813 @@
     <t xml:space="preserve">Upper Peshastin Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">,Cover- Wood,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eureka Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eureka Creek Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falls Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falls Creek Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farewell Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek (Methow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fawn Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Lake Run 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Lake Run 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foggy Dew Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foggy Dew Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foggy Dew Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foggy Dew Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frazer Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frazer Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frazer Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek (Wenatchee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freund Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gate Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gill Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Creek 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek North Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek South Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Fork Gold Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek South Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek South Fork 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Creek South Fork 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goose Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansel Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornet Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornet Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornet Draw 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Flow- Summer Base Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Middle 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillicum Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingalls Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahler Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kloochman Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Entiat 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Fines/Embeddedness,,,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Creek Methow 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larsen Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leland Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leland Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leland Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leland Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek North Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek North Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek South Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Creek South Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Boulder Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Camas Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Giant Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Slate Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Lost River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Pool Quantity &amp; Quality,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Pool Quantity &amp; Quality,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Wood,Pool Quantity &amp; Quality,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Cover- Wood,Pool Quantity &amp; Quality,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook Trout,Brook Trout,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Alder Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alder 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Alta Coulee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Alta Coulee 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-McFarland Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River McFarland 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Texas 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Texas Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Texas 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Texas 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Texas 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River West Fork 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Fork Methow River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River West Fork 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River West Fork 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River West Fork 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Shaser Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Nason 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">,Temperature- Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Etienne Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eureka Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eureka Creek Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falls Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falls Creek Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farewell Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek (Methow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fawn Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Lake Run 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish Lake Run 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggy Dew Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggy Dew Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggy Dew Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggy Dew Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frazer Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frazer Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frazer Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek (Wenatchee)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freund Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gill Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goat Creek 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek North Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek South Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Fork Gold Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek South Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek South Fork 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Creek South Fork 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goose Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hansel Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hornet Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT Natal Rearing,BT Subadult Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hornet Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hornet Draw 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Non-Spawning,Holding and Maturation,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding,Flow- Summer Base Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Icicle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Middle 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icicle Creek Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillicum Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingalls Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingalls Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingalls Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingalls Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahler Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kloochman Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Entiat 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Creek Methow 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larsen Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leland Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leland Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leland Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leland Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek North Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek North Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek South Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libby Creek South Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Boulder Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Camas Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Giant Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Slate Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Lost River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Pool Quantity &amp; Quality,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Pool Quantity &amp; Quality,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Brook Trout,Cover- Wood,Floodplain Connectivity,Cover- Wood,Pool Quantity &amp; Quality,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Brook Trout,Floodplain Connectivity,Pool Quantity &amp; Quality,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Brook Trout,Pool Quantity &amp; Quality,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Upper 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brook Trout,Brook Trout,Cover- Wood,Cover- Wood,Pool Quantity &amp; Quality,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Alder Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alder 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Alta Coulee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Alta Coulee 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-McFarland Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River McFarland 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Texas 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Texas Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Texas 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Texas 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Texas 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River West Fork 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Fork Methow River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River West Fork 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River West Fork 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River West Fork 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Shaser Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mill Creek Nason 01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mill Creek Peshastin 01</t>
   </si>
   <si>
@@ -1847,9 +1850,6 @@
     <t xml:space="preserve">Nason Creek Lower 14</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Coarse Substrate,Brook Trout,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing,Cover- Wood,Temperature- Adult Holding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">Nason Creek Upper 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Brook Trout,Brook Trout,Temperature- Rearing</t>
+    <t xml:space="preserve">Brook Trout,Brook Trout,Cover- Wood,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Upper 06</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">Tronsen Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Coarse Substrate,Coarse Substrate,Temperature- Rearing</t>
+    <t xml:space="preserve">Coarse Substrate,Coarse Substrate,Cover- Wood,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Tronsen Creek 02</t>
   </si>
   <si>
-    <t xml:space="preserve">,Cover- Wood,Temperature- Rearing</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Tronsen Creek 03</t>
@@ -2783,25 +2783,28 @@
     <t xml:space="preserve">White River Lower 01</t>
   </si>
   <si>
+    <t xml:space="preserve">Brook Trout,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brook Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Brook Trout,Coarse Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 07</t>
@@ -4086,7 +4089,9 @@
       <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G19"/>
+      <c r="G19" t="n">
+        <v>0.222222222222222</v>
+      </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
@@ -4094,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -4562,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.488888888888889</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
@@ -4615,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.577777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H29" t="s">
         <v>27</v>
@@ -4668,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H30" t="s">
         <v>64</v>
@@ -4721,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.844444444444444</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H31" t="s">
         <v>64</v>
@@ -5250,7 +5255,9 @@
       <c r="F41" t="n">
         <v>3</v>
       </c>
-      <c r="G41"/>
+      <c r="G41" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H41" t="s">
         <v>27</v>
       </c>
@@ -5258,10 +5265,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L41" t="n">
         <v>95.0608657364311</v>
@@ -5710,7 +5717,7 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>0.422222222222222</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -5868,8 +5875,8 @@
       <c r="F53" t="n">
         <v>3</v>
       </c>
-      <c r="G53" t="e">
-        <v>#NUM!</v>
+      <c r="G53" t="n">
+        <v>0.866666666666667</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -5881,7 +5888,7 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L53" t="n">
         <v>74.0916722412414</v>
@@ -6451,8 +6458,8 @@
       <c r="F64" t="n">
         <v>3</v>
       </c>
-      <c r="G64" t="e">
-        <v>#NUM!</v>
+      <c r="G64" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -6461,7 +6468,7 @@
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
@@ -6664,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H68" t="s">
         <v>27</v>
@@ -6717,7 +6724,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -6770,7 +6777,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -6823,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>0.711111111111111</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H71" t="s">
         <v>27</v>
@@ -6835,7 +6842,7 @@
         <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>95.5495880146652</v>
@@ -7512,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -7565,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
@@ -7671,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>0.755555555555556</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
@@ -7989,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -8042,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H94" t="s">
         <v>27</v>
@@ -8051,7 +8058,7 @@
         <v>28</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
@@ -8147,8 +8154,8 @@
       <c r="F96" t="n">
         <v>1</v>
       </c>
-      <c r="G96" t="e">
-        <v>#NUM!</v>
+      <c r="G96" t="n">
+        <v>0.6</v>
       </c>
       <c r="H96" t="s">
         <v>158</v>
@@ -8200,8 +8207,8 @@
       <c r="F97" t="n">
         <v>1</v>
       </c>
-      <c r="G97" t="e">
-        <v>#NUM!</v>
+      <c r="G97" t="n">
+        <v>0.866666666666667</v>
       </c>
       <c r="H97" t="s">
         <v>158</v>
@@ -8313,7 +8320,7 @@
         <v>158</v>
       </c>
       <c r="I99" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J99" t="s">
         <v>21</v>
@@ -8342,10 +8349,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -8381,10 +8388,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
@@ -8398,12 +8405,14 @@
       <c r="F101" t="n">
         <v>1</v>
       </c>
-      <c r="G101"/>
+      <c r="G101" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -8432,10 +8441,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
         <v>26</v>
@@ -8453,10 +8462,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -8488,7 +8497,7 @@
         <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
         <v>26</v>
@@ -8502,11 +8511,11 @@
       <c r="F103" t="n">
         <v>1</v>
       </c>
-      <c r="G103" t="e">
-        <v>#NUM!</v>
+      <c r="G103" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I103" t="s">
         <v>174</v>
@@ -8541,7 +8550,7 @@
         <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
         <v>26</v>
@@ -8559,7 +8568,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H104" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I104" t="s">
         <v>174</v>
@@ -8594,7 +8603,7 @@
         <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
@@ -8612,7 +8621,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I105" t="s">
         <v>174</v>
@@ -8661,8 +8670,8 @@
       <c r="F106" t="n">
         <v>1</v>
       </c>
-      <c r="G106" t="e">
-        <v>#NUM!</v>
+      <c r="G106" t="n">
+        <v>0.6</v>
       </c>
       <c r="H106" t="s">
         <v>27</v>
@@ -8671,7 +8680,7 @@
         <v>28</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
         <v>20</v>
@@ -8715,7 +8724,7 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
@@ -8768,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>0.466666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -9033,7 +9042,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H113" t="s">
         <v>27</v>
@@ -9086,7 +9095,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>0.555555555555556</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H114" t="s">
         <v>27</v>
@@ -9138,8 +9147,8 @@
       <c r="F115" t="n">
         <v>2</v>
       </c>
-      <c r="G115" t="e">
-        <v>#NUM!</v>
+      <c r="G115" t="n">
+        <v>0.555555555555556</v>
       </c>
       <c r="H115" t="s">
         <v>27</v>
@@ -9148,7 +9157,7 @@
         <v>28</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>20</v>
@@ -9244,8 +9253,8 @@
       <c r="F117" t="n">
         <v>2</v>
       </c>
-      <c r="G117" t="e">
-        <v>#NUM!</v>
+      <c r="G117" t="n">
+        <v>0.755555555555556</v>
       </c>
       <c r="H117" t="s">
         <v>27</v>
@@ -9254,10 +9263,10 @@
         <v>28</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L117" t="n">
         <v>98.2745398602345</v>
@@ -9403,8 +9412,8 @@
       <c r="F120" t="n">
         <v>1</v>
       </c>
-      <c r="G120" t="e">
-        <v>#NUM!</v>
+      <c r="G120" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
@@ -9413,10 +9422,10 @@
         <v>28</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L120" t="n">
         <v>93.3825341858876</v>
@@ -9615,8 +9624,8 @@
       <c r="F124" t="n">
         <v>3</v>
       </c>
-      <c r="G124" t="e">
-        <v>#NUM!</v>
+      <c r="G124" t="n">
+        <v>0.266666666666667</v>
       </c>
       <c r="H124" t="s">
         <v>27</v>
@@ -9625,7 +9634,7 @@
         <v>28</v>
       </c>
       <c r="J124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K124" t="s">
         <v>20</v>
@@ -9668,8 +9677,8 @@
       <c r="F125" t="n">
         <v>3</v>
       </c>
-      <c r="G125" t="e">
-        <v>#NUM!</v>
+      <c r="G125" t="n">
+        <v>0.4</v>
       </c>
       <c r="H125" t="s">
         <v>27</v>
@@ -9678,7 +9687,7 @@
         <v>28</v>
       </c>
       <c r="J125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K125" t="s">
         <v>20</v>
@@ -9721,8 +9730,8 @@
       <c r="F126" t="n">
         <v>3</v>
       </c>
-      <c r="G126" t="e">
-        <v>#NUM!</v>
+      <c r="G126" t="n">
+        <v>0.444444444444444</v>
       </c>
       <c r="H126" t="s">
         <v>27</v>
@@ -9731,7 +9740,7 @@
         <v>28</v>
       </c>
       <c r="J126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K126" t="s">
         <v>20</v>
@@ -9827,8 +9836,8 @@
       <c r="F128" t="n">
         <v>3</v>
       </c>
-      <c r="G128" t="e">
-        <v>#NUM!</v>
+      <c r="G128" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H128" t="s">
         <v>27</v>
@@ -9837,7 +9846,7 @@
         <v>28</v>
       </c>
       <c r="J128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K128" t="s">
         <v>20</v>
@@ -10092,7 +10101,9 @@
       <c r="F133" t="n">
         <v>3</v>
       </c>
-      <c r="G133"/>
+      <c r="G133" t="n">
+        <v>0.355555555555556</v>
+      </c>
       <c r="H133" t="s">
         <v>27</v>
       </c>
@@ -10100,7 +10111,7 @@
         <v>28</v>
       </c>
       <c r="J133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K133" t="s">
         <v>20</v>
@@ -10567,8 +10578,8 @@
       <c r="F142" t="n">
         <v>3</v>
       </c>
-      <c r="G142" t="e">
-        <v>#NUM!</v>
+      <c r="G142" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H142" t="s">
         <v>27</v>
@@ -10577,7 +10588,7 @@
         <v>28</v>
       </c>
       <c r="J142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K142" t="s">
         <v>20</v>
@@ -10620,8 +10631,8 @@
       <c r="F143" t="n">
         <v>3</v>
       </c>
-      <c r="G143" t="e">
-        <v>#NUM!</v>
+      <c r="G143" t="n">
+        <v>0.511111111111111</v>
       </c>
       <c r="H143" t="s">
         <v>27</v>
@@ -10630,7 +10641,7 @@
         <v>28</v>
       </c>
       <c r="J143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K143" t="s">
         <v>20</v>
@@ -10673,8 +10684,8 @@
       <c r="F144" t="n">
         <v>3</v>
       </c>
-      <c r="G144" t="e">
-        <v>#NUM!</v>
+      <c r="G144" t="n">
+        <v>0.488888888888889</v>
       </c>
       <c r="H144" t="s">
         <v>27</v>
@@ -10683,7 +10694,7 @@
         <v>28</v>
       </c>
       <c r="J144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K144" t="s">
         <v>20</v>
@@ -10939,7 +10950,7 @@
         <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="s">
         <v>27</v>
@@ -11632,7 +11643,7 @@
         <v>64</v>
       </c>
       <c r="I162" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J162" t="s">
         <v>21</v>
@@ -11661,7 +11672,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>242</v>
@@ -11714,7 +11725,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>242</v>
@@ -11738,7 +11749,7 @@
         <v>64</v>
       </c>
       <c r="I164" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J164" t="s">
         <v>21</v>
@@ -11767,10 +11778,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C165" t="s">
         <v>97</v>
@@ -11785,13 +11796,13 @@
         <v>2</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H165" t="s">
         <v>211</v>
       </c>
       <c r="I165" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J165" t="s">
         <v>21</v>
@@ -11820,10 +11831,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C166" t="s">
         <v>97</v>
@@ -11838,13 +11849,13 @@
         <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H166" t="s">
         <v>211</v>
       </c>
       <c r="I166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J166" t="s">
         <v>21</v>
@@ -11873,10 +11884,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C167" t="s">
         <v>97</v>
@@ -11891,13 +11902,13 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>0.888888888888889</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H167" t="s">
         <v>211</v>
       </c>
       <c r="I167" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J167" t="s">
         <v>21</v>
@@ -11926,10 +11937,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C168" t="s">
         <v>97</v>
@@ -11944,13 +11955,13 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>0.711111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H168" t="s">
         <v>211</v>
       </c>
       <c r="I168" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J168" t="s">
         <v>21</v>
@@ -11982,7 +11993,7 @@
         <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C169" t="s">
         <v>97</v>
@@ -11997,13 +12008,13 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>0.888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="s">
         <v>211</v>
       </c>
       <c r="I169" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J169" t="s">
         <v>21</v>
@@ -12032,10 +12043,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C170" t="s">
         <v>97</v>
@@ -12050,13 +12061,13 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>0.822222222222222</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="H170" t="s">
         <v>211</v>
       </c>
       <c r="I170" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J170" t="s">
         <v>21</v>
@@ -12088,7 +12099,7 @@
         <v>264</v>
       </c>
       <c r="B171" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C171" t="s">
         <v>97</v>
@@ -12103,13 +12114,13 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H171" t="s">
         <v>211</v>
       </c>
       <c r="I171" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="J171" t="s">
         <v>21</v>
@@ -12138,10 +12149,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C172" t="s">
         <v>97</v>
@@ -12156,13 +12167,13 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>0.822222222222222</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="H172" t="s">
         <v>211</v>
       </c>
       <c r="I172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J172" t="s">
         <v>21</v>
@@ -12194,7 +12205,7 @@
         <v>267</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C173" t="s">
         <v>97</v>
@@ -12209,13 +12220,13 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H173" t="s">
         <v>211</v>
       </c>
       <c r="I173" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J173" t="s">
         <v>21</v>
@@ -12244,10 +12255,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
         <v>97</v>
@@ -12262,13 +12273,13 @@
         <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H174" t="s">
         <v>211</v>
       </c>
       <c r="I174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J174" t="s">
         <v>21</v>
@@ -12297,10 +12308,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C175" t="s">
         <v>97</v>
@@ -12314,14 +12325,14 @@
       <c r="F175" t="n">
         <v>2</v>
       </c>
-      <c r="G175" t="e">
-        <v>#NUM!</v>
+      <c r="G175" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H175" t="s">
         <v>211</v>
       </c>
       <c r="I175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J175" t="s">
         <v>21</v>
@@ -12350,10 +12361,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
         <v>97</v>
@@ -12367,12 +12378,14 @@
       <c r="F176" t="n">
         <v>3</v>
       </c>
-      <c r="G176"/>
+      <c r="G176" t="n">
+        <v>0.511111111111111</v>
+      </c>
       <c r="H176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I176" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J176" t="s">
         <v>21</v>
@@ -12401,10 +12414,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C177" t="s">
         <v>97</v>
@@ -12422,7 +12435,7 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I177" t="s">
         <v>28</v>
@@ -12454,10 +12467,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C178" t="s">
         <v>97</v>
@@ -12475,7 +12488,7 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I178" t="s">
         <v>28</v>
@@ -12507,10 +12520,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C179" t="s">
         <v>97</v>
@@ -12528,7 +12541,7 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I179" t="s">
         <v>28</v>
@@ -12560,10 +12573,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
         <v>97</v>
@@ -12581,7 +12594,7 @@
         <v>0.622222222222222</v>
       </c>
       <c r="H180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I180" t="s">
         <v>28</v>
@@ -12613,10 +12626,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C181" t="s">
         <v>97</v>
@@ -12634,7 +12647,7 @@
         <v>0.622222222222222</v>
       </c>
       <c r="H181" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I181" t="s">
         <v>28</v>
@@ -12666,10 +12679,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C182" t="s">
         <v>97</v>
@@ -12683,15 +12696,17 @@
       <c r="F182" t="n">
         <v>3</v>
       </c>
-      <c r="G182"/>
+      <c r="G182" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H182" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I182" t="s">
         <v>28</v>
       </c>
       <c r="J182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K182" t="s">
         <v>20</v>
@@ -12717,10 +12732,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C183" t="s">
         <v>97</v>
@@ -12734,12 +12749,14 @@
       <c r="F183" t="n">
         <v>3</v>
       </c>
-      <c r="G183"/>
+      <c r="G183" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H183" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I183" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J183" t="s">
         <v>21</v>
@@ -12768,10 +12785,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C184" t="s">
         <v>97</v>
@@ -12785,7 +12802,9 @@
       <c r="F184" t="n">
         <v>3</v>
       </c>
-      <c r="G184"/>
+      <c r="G184" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H184" t="s">
         <v>27</v>
       </c>
@@ -12793,7 +12812,7 @@
         <v>28</v>
       </c>
       <c r="J184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K184" t="s">
         <v>20</v>
@@ -12819,10 +12838,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185" t="s">
         <v>285</v>
-      </c>
-      <c r="B185" t="s">
-        <v>284</v>
       </c>
       <c r="C185" t="s">
         <v>97</v>
@@ -12836,7 +12855,9 @@
       <c r="F185" t="n">
         <v>3</v>
       </c>
-      <c r="G185"/>
+      <c r="G185" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H185" t="s">
         <v>27</v>
       </c>
@@ -12844,7 +12865,7 @@
         <v>28</v>
       </c>
       <c r="J185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K185" t="s">
         <v>20</v>
@@ -12870,10 +12891,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C186" t="s">
         <v>97</v>
@@ -12887,7 +12908,9 @@
       <c r="F186" t="n">
         <v>3</v>
       </c>
-      <c r="G186"/>
+      <c r="G186" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="H186" t="s">
         <v>27</v>
       </c>
@@ -12895,7 +12918,7 @@
         <v>28</v>
       </c>
       <c r="J186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K186" t="s">
         <v>20</v>
@@ -12921,10 +12944,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C187" t="s">
         <v>97</v>
@@ -12938,7 +12961,9 @@
       <c r="F187" t="n">
         <v>3</v>
       </c>
-      <c r="G187"/>
+      <c r="G187" t="n">
+        <v>0.511111111111111</v>
+      </c>
       <c r="H187" t="s">
         <v>27</v>
       </c>
@@ -12946,7 +12971,7 @@
         <v>28</v>
       </c>
       <c r="J187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K187" t="s">
         <v>20</v>
@@ -12972,10 +12997,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B188" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C188" t="s">
         <v>97</v>
@@ -12990,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>0.866666666666667</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="H188" t="s">
         <v>27</v>
@@ -13025,10 +13050,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
         <v>97</v>
@@ -13043,7 +13068,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H189" t="s">
         <v>27</v>
@@ -13052,7 +13077,7 @@
         <v>28</v>
       </c>
       <c r="J189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K189" t="s">
         <v>21</v>
@@ -13078,10 +13103,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C190" t="s">
         <v>97</v>
@@ -13096,7 +13121,7 @@
         <v>3</v>
       </c>
       <c r="G190" t="n">
-        <v>0.688888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H190" t="s">
         <v>27</v>
@@ -13131,10 +13156,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B191" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C191" t="s">
         <v>97</v>
@@ -13149,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>0.733333333333333</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
@@ -13184,7 +13209,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B192" t="s">
         <v>96</v>
@@ -13202,7 +13227,7 @@
         <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H192" t="s">
         <v>27</v>
@@ -13237,7 +13262,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
         <v>96</v>
@@ -13255,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="G193" t="n">
-        <v>0.733333333333333</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="H193" t="s">
         <v>27</v>
@@ -13290,7 +13315,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
         <v>96</v>
@@ -13308,7 +13333,7 @@
         <v>3</v>
       </c>
       <c r="G194" t="n">
-        <v>0.688888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H194" t="s">
         <v>27</v>
@@ -13343,7 +13368,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
         <v>96</v>
@@ -13361,7 +13386,7 @@
         <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>0.688888888888889</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H195" t="s">
         <v>27</v>
@@ -13396,10 +13421,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C196" t="s">
         <v>97</v>
@@ -13414,7 +13439,7 @@
         <v>2</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H196" t="s">
         <v>27</v>
@@ -13423,10 +13448,10 @@
         <v>28</v>
       </c>
       <c r="J196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>97.2462993624277</v>
@@ -13449,10 +13474,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
@@ -13473,7 +13498,7 @@
         <v>158</v>
       </c>
       <c r="I197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J197" t="s">
         <v>21</v>
@@ -13502,10 +13527,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C198" t="s">
         <v>26</v>
@@ -13526,7 +13551,7 @@
         <v>158</v>
       </c>
       <c r="I198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J198" t="s">
         <v>21</v>
@@ -13555,10 +13580,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B199" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C199" t="s">
         <v>32</v>
@@ -13608,10 +13633,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B200" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C200" t="s">
         <v>32</v>
@@ -13661,10 +13686,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C201" t="s">
         <v>32</v>
@@ -13682,7 +13707,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I201" t="s">
         <v>28</v>
@@ -13714,10 +13739,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B202" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C202" t="s">
         <v>32</v>
@@ -13767,10 +13792,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B203" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C203" t="s">
         <v>26</v>
@@ -13820,7 +13845,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B204" t="s">
         <v>50</v>
@@ -13873,7 +13898,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B205" t="s">
         <v>50</v>
@@ -13926,7 +13951,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B206" t="s">
         <v>215</v>
@@ -13979,7 +14004,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B207" t="s">
         <v>215</v>
@@ -14032,7 +14057,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B208" t="s">
         <v>215</v>
@@ -14085,7 +14110,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B209" t="s">
         <v>215</v>
@@ -14138,7 +14163,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B210" t="s">
         <v>53</v>
@@ -14191,7 +14216,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B211" t="s">
         <v>53</v>
@@ -14244,7 +14269,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B212" t="s">
         <v>53</v>
@@ -14297,10 +14322,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B213" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C213" t="s">
         <v>26</v>
@@ -14318,7 +14343,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H213" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I213" t="s">
         <v>28</v>
@@ -14350,10 +14375,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B214" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C214" t="s">
         <v>26</v>
@@ -14371,7 +14396,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I214" t="s">
         <v>28</v>
@@ -14403,10 +14428,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>328</v>
+      </c>
+      <c r="B215" t="s">
         <v>327</v>
-      </c>
-      <c r="B215" t="s">
-        <v>326</v>
       </c>
       <c r="C215" t="s">
         <v>26</v>
@@ -14424,7 +14449,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H215" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I215" t="s">
         <v>28</v>
@@ -14456,10 +14481,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B216" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C216" t="s">
         <v>26</v>
@@ -14477,7 +14502,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H216" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I216" t="s">
         <v>28</v>
@@ -14509,10 +14534,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B217" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
@@ -14530,7 +14555,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I217" t="s">
         <v>28</v>
@@ -14562,10 +14587,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
@@ -14583,7 +14608,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H218" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I218" t="s">
         <v>28</v>
@@ -14615,7 +14640,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B219" t="s">
         <v>198</v>
@@ -14668,7 +14693,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -14721,7 +14746,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
@@ -14774,10 +14799,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C222" t="s">
         <v>32</v>
@@ -14827,10 +14852,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>337</v>
+      </c>
+      <c r="B223" t="s">
         <v>336</v>
-      </c>
-      <c r="B223" t="s">
-        <v>335</v>
       </c>
       <c r="C223" t="s">
         <v>32</v>
@@ -14880,10 +14905,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B224" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C224" t="s">
         <v>32</v>
@@ -14933,10 +14958,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B225" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C225" t="s">
         <v>32</v>
@@ -14986,10 +15011,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
         <v>32</v>
@@ -15039,10 +15064,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B227" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C227" t="s">
         <v>32</v>
@@ -15092,10 +15117,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C228" t="s">
         <v>32</v>
@@ -15145,10 +15170,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B229" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C229" t="s">
         <v>32</v>
@@ -15198,10 +15223,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B230" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C230" t="s">
         <v>32</v>
@@ -15251,7 +15276,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B231" t="s">
         <v>215</v>
@@ -15304,7 +15329,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B232" t="s">
         <v>215</v>
@@ -15357,7 +15382,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B233" t="s">
         <v>215</v>
@@ -15410,7 +15435,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B234" t="s">
         <v>215</v>
@@ -15463,7 +15488,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B235" t="s">
         <v>215</v>
@@ -15516,7 +15541,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B236" t="s">
         <v>215</v>
@@ -15569,10 +15594,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B237" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C237" t="s">
         <v>32</v>
@@ -15622,10 +15647,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>353</v>
+      </c>
+      <c r="B238" t="s">
         <v>352</v>
-      </c>
-      <c r="B238" t="s">
-        <v>351</v>
       </c>
       <c r="C238" t="s">
         <v>32</v>
@@ -15675,10 +15700,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B239" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C239" t="s">
         <v>32</v>
@@ -15728,10 +15753,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B240" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C240" t="s">
         <v>32</v>
@@ -15781,7 +15806,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s">
         <v>25</v>
@@ -15834,10 +15859,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C242" t="s">
         <v>32</v>
@@ -15852,7 +15877,7 @@
         <v>3</v>
       </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H242" t="s">
         <v>27</v>
@@ -15861,7 +15886,7 @@
         <v>28</v>
       </c>
       <c r="J242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K242" t="s">
         <v>21</v>
@@ -15887,7 +15912,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B243" t="s">
         <v>118</v>
@@ -15940,10 +15965,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B244" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -15993,10 +16018,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C245" t="s">
         <v>97</v>
@@ -16014,7 +16039,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H245" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I245" t="s">
         <v>28</v>
@@ -16046,10 +16071,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B246" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C246" t="s">
         <v>97</v>
@@ -16067,7 +16092,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H246" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I246" t="s">
         <v>28</v>
@@ -16099,7 +16124,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -16152,10 +16177,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B248" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -16169,12 +16194,14 @@
       <c r="F248" t="n">
         <v>3</v>
       </c>
-      <c r="G248"/>
+      <c r="G248" t="n">
+        <v>0.288888888888889</v>
+      </c>
       <c r="H248" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I248" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J248" t="s">
         <v>21</v>
@@ -16203,10 +16230,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B249" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -16220,12 +16247,14 @@
       <c r="F249" t="n">
         <v>3</v>
       </c>
-      <c r="G249"/>
+      <c r="G249" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H249" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I249" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J249" t="s">
         <v>21</v>
@@ -16254,10 +16283,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B250" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C250" t="s">
         <v>26</v>
@@ -16271,12 +16300,14 @@
       <c r="F250" t="n">
         <v>3</v>
       </c>
-      <c r="G250"/>
+      <c r="G250" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H250" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I250" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J250" t="s">
         <v>21</v>
@@ -16305,10 +16336,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B251" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C251" t="s">
         <v>26</v>
@@ -16322,12 +16353,14 @@
       <c r="F251" t="n">
         <v>3</v>
       </c>
-      <c r="G251"/>
+      <c r="G251" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H251" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I251" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J251" t="s">
         <v>21</v>
@@ -16356,10 +16389,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B252" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C252" t="s">
         <v>26</v>
@@ -16373,15 +16406,17 @@
       <c r="F252" t="n">
         <v>3</v>
       </c>
-      <c r="G252"/>
+      <c r="G252" t="n">
+        <v>0.555555555555556</v>
+      </c>
       <c r="H252" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I252" t="s">
         <v>28</v>
       </c>
       <c r="J252" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K252" t="s">
         <v>20</v>
@@ -16407,10 +16442,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B253" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C253" t="s">
         <v>26</v>
@@ -16424,15 +16459,17 @@
       <c r="F253" t="n">
         <v>3</v>
       </c>
-      <c r="G253"/>
+      <c r="G253" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H253" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I253" t="s">
         <v>28</v>
       </c>
       <c r="J253" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K253" t="s">
         <v>20</v>
@@ -16458,10 +16495,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B254" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C254" t="s">
         <v>26</v>
@@ -16475,15 +16512,17 @@
       <c r="F254" t="n">
         <v>3</v>
       </c>
-      <c r="G254"/>
+      <c r="G254" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H254" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I254" t="s">
         <v>28</v>
       </c>
       <c r="J254" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K254" t="s">
         <v>20</v>
@@ -16509,10 +16548,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B255" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
@@ -16526,15 +16565,17 @@
       <c r="F255" t="n">
         <v>3</v>
       </c>
-      <c r="G255"/>
+      <c r="G255" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H255" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
       </c>
       <c r="J255" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K255" t="s">
         <v>20</v>
@@ -16560,10 +16601,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B256" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C256" t="s">
         <v>26</v>
@@ -16613,10 +16654,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>379</v>
+      </c>
+      <c r="B257" t="s">
         <v>378</v>
-      </c>
-      <c r="B257" t="s">
-        <v>377</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -16666,10 +16707,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B258" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -16719,10 +16760,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B259" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -16772,10 +16813,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B260" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -16825,10 +16866,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B261" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -16878,10 +16919,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -16931,10 +16972,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B263" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -16984,10 +17025,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B264" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -17037,10 +17078,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B265" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -17090,10 +17131,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B266" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -17143,10 +17184,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B267" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -17196,10 +17237,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B268" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -17249,10 +17290,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B269" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -17302,10 +17343,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -17355,10 +17396,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B271" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -17408,10 +17449,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B272" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C272" t="s">
         <v>97</v>
@@ -17461,10 +17502,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -17482,7 +17523,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I273" t="s">
         <v>28</v>
@@ -17514,10 +17555,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B274" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -17535,7 +17576,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H274" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I274" t="s">
         <v>28</v>
@@ -17567,10 +17608,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B275" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -17588,7 +17629,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H275" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I275" t="s">
         <v>28</v>
@@ -17620,10 +17661,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B276" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -17673,10 +17714,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B277" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C277" t="s">
         <v>19</v>
@@ -17714,10 +17755,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>405</v>
+      </c>
+      <c r="B278" t="s">
         <v>404</v>
-      </c>
-      <c r="B278" t="s">
-        <v>403</v>
       </c>
       <c r="C278" t="s">
         <v>19</v>
@@ -17755,10 +17796,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B279" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
@@ -17796,10 +17837,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B280" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C280" t="s">
         <v>19</v>
@@ -17837,10 +17878,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B281" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C281" t="s">
         <v>19</v>
@@ -17878,10 +17919,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B282" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C282" t="s">
         <v>19</v>
@@ -17919,10 +17960,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B283" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C283" t="s">
         <v>19</v>
@@ -17960,10 +18001,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B284" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C284" t="s">
         <v>19</v>
@@ -18001,10 +18042,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B285" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C285" t="s">
         <v>19</v>
@@ -18042,7 +18083,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B286" t="s">
         <v>106</v>
@@ -18095,10 +18136,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C287" t="s">
         <v>97</v>
@@ -18148,10 +18189,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B288" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C288" t="s">
         <v>97</v>
@@ -18165,14 +18206,14 @@
       <c r="F288" t="n">
         <v>2</v>
       </c>
-      <c r="G288" t="e">
-        <v>#NUM!</v>
+      <c r="G288" t="n">
+        <v>0.955555555555556</v>
       </c>
       <c r="H288" t="s">
         <v>211</v>
       </c>
       <c r="I288" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J288" t="s">
         <v>21</v>
@@ -18201,10 +18242,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B289" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C289" t="s">
         <v>32</v>
@@ -18222,7 +18263,7 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H289" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I289" t="s">
         <v>28</v>
@@ -18254,10 +18295,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C290" t="s">
         <v>32</v>
@@ -18275,7 +18316,7 @@
         <v>0.533333333333333</v>
       </c>
       <c r="H290" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I290" t="s">
         <v>28</v>
@@ -18307,10 +18348,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B291" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C291" t="s">
         <v>32</v>
@@ -18328,7 +18369,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H291" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I291" t="s">
         <v>28</v>
@@ -18360,10 +18401,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B292" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C292" t="s">
         <v>32</v>
@@ -18381,7 +18422,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H292" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I292" t="s">
         <v>28</v>
@@ -18413,10 +18454,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B293" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C293" t="s">
         <v>32</v>
@@ -18434,10 +18475,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H293" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I293" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J293" t="s">
         <v>21</v>
@@ -18466,10 +18507,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B294" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C294" t="s">
         <v>32</v>
@@ -18487,10 +18528,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H294" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I294" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
@@ -18519,10 +18560,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B295" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C295" t="s">
         <v>26</v>
@@ -18540,10 +18581,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H295" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I295" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J295" t="s">
         <v>21</v>
@@ -18572,7 +18613,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B296" t="s">
         <v>118</v>
@@ -18625,10 +18666,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -18678,10 +18719,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B298" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C298" t="s">
         <v>26</v>
@@ -18731,10 +18772,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B299" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C299" t="s">
         <v>26</v>
@@ -18784,10 +18825,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B300" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C300" t="s">
         <v>26</v>
@@ -18837,7 +18878,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B301" t="s">
         <v>77</v>
@@ -18854,7 +18895,9 @@
       <c r="F301" t="n">
         <v>3</v>
       </c>
-      <c r="G301"/>
+      <c r="G301" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H301" t="s">
         <v>27</v>
       </c>
@@ -18862,7 +18905,7 @@
         <v>28</v>
       </c>
       <c r="J301" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
         <v>20</v>
@@ -18888,7 +18931,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B302" t="s">
         <v>77</v>
@@ -18941,7 +18984,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B303" t="s">
         <v>77</v>
@@ -18994,7 +19037,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B304" t="s">
         <v>77</v>
@@ -19047,7 +19090,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B305" t="s">
         <v>77</v>
@@ -19100,7 +19143,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B306" t="s">
         <v>77</v>
@@ -19153,7 +19196,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B307" t="s">
         <v>77</v>
@@ -19206,7 +19249,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B308" t="s">
         <v>77</v>
@@ -19259,7 +19302,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B309" t="s">
         <v>77</v>
@@ -19312,7 +19355,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B310" t="s">
         <v>77</v>
@@ -19365,7 +19408,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B311" t="s">
         <v>77</v>
@@ -19418,10 +19461,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B312" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C312" t="s">
         <v>32</v>
@@ -19471,10 +19514,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B313" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C313" t="s">
         <v>32</v>
@@ -19488,7 +19531,9 @@
       <c r="F313" t="n">
         <v>3</v>
       </c>
-      <c r="G313"/>
+      <c r="G313" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H313" t="s">
         <v>27</v>
       </c>
@@ -19496,7 +19541,7 @@
         <v>28</v>
       </c>
       <c r="J313" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K313" t="s">
         <v>20</v>
@@ -19522,10 +19567,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>446</v>
+      </c>
+      <c r="B314" t="s">
         <v>445</v>
-      </c>
-      <c r="B314" t="s">
-        <v>444</v>
       </c>
       <c r="C314" t="s">
         <v>32</v>
@@ -19575,10 +19620,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B315" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C315" t="s">
         <v>32</v>
@@ -19628,10 +19673,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B316" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C316" t="s">
         <v>32</v>
@@ -19681,10 +19726,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B317" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C317" t="s">
         <v>32</v>
@@ -19734,10 +19779,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B318" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C318" t="s">
         <v>32</v>
@@ -19752,7 +19797,7 @@
         <v>3</v>
       </c>
       <c r="G318" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H318" t="s">
         <v>27</v>
@@ -19787,10 +19832,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B319" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
@@ -19840,7 +19885,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B320" t="s">
         <v>191</v>
@@ -19893,7 +19938,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B321" t="s">
         <v>120</v>
@@ -19946,10 +19991,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B322" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -19997,10 +20042,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>457</v>
+      </c>
+      <c r="B323" t="s">
         <v>456</v>
-      </c>
-      <c r="B323" t="s">
-        <v>455</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -20015,7 +20060,7 @@
         <v>3</v>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H323" t="s">
         <v>211</v>
@@ -20050,10 +20095,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B324" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C324" t="s">
         <v>26</v>
@@ -20103,10 +20148,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B325" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -20156,10 +20201,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B326" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C326" t="s">
         <v>26</v>
@@ -20209,10 +20254,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B327" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -20227,7 +20272,7 @@
         <v>3</v>
       </c>
       <c r="G327" t="n">
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="H327" t="s">
         <v>211</v>
@@ -20262,10 +20307,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B328" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C328" t="s">
         <v>26</v>
@@ -20315,10 +20360,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B329" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C329" t="s">
         <v>26</v>
@@ -20368,10 +20413,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C330" t="s">
         <v>26</v>
@@ -20421,10 +20466,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -20474,10 +20519,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C332" t="s">
         <v>32</v>
@@ -20527,10 +20572,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
+        <v>469</v>
+      </c>
+      <c r="B333" t="s">
         <v>468</v>
-      </c>
-      <c r="B333" t="s">
-        <v>467</v>
       </c>
       <c r="C333" t="s">
         <v>32</v>
@@ -20580,10 +20625,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B334" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C334" t="s">
         <v>32</v>
@@ -20633,10 +20678,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B335" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C335" t="s">
         <v>32</v>
@@ -20686,10 +20731,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B336" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C336" t="s">
         <v>32</v>
@@ -20739,10 +20784,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B337" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C337" t="s">
         <v>32</v>
@@ -20792,7 +20837,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B338" t="s">
         <v>229</v>
@@ -20845,7 +20890,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B339" t="s">
         <v>226</v>
@@ -20898,7 +20943,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B340" t="s">
         <v>226</v>
@@ -20951,10 +20996,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B341" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C341" t="s">
         <v>19</v>
@@ -20992,10 +21037,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
+        <v>479</v>
+      </c>
+      <c r="B342" t="s">
         <v>478</v>
-      </c>
-      <c r="B342" t="s">
-        <v>477</v>
       </c>
       <c r="C342" t="s">
         <v>19</v>
@@ -21033,10 +21078,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B343" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C343" t="s">
         <v>19</v>
@@ -21074,10 +21119,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B344" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C344" t="s">
         <v>97</v>
@@ -21095,10 +21140,10 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I344" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J344" t="s">
         <v>21</v>
@@ -21127,10 +21172,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B345" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C345" t="s">
         <v>97</v>
@@ -21148,10 +21193,10 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H345" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I345" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J345" t="s">
         <v>21</v>
@@ -21180,10 +21225,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B346" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C346" t="s">
         <v>97</v>
@@ -21198,13 +21243,13 @@
         <v>3</v>
       </c>
       <c r="G346" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H346" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I346" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J346" t="s">
         <v>21</v>
@@ -21233,10 +21278,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B347" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C347" t="s">
         <v>97</v>
@@ -21254,10 +21299,10 @@
         <v>0.822222222222222</v>
       </c>
       <c r="H347" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I347" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J347" t="s">
         <v>21</v>
@@ -21286,10 +21331,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B348" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C348" t="s">
         <v>97</v>
@@ -21303,12 +21348,14 @@
       <c r="F348" t="n">
         <v>3</v>
       </c>
-      <c r="G348"/>
+      <c r="G348" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H348" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I348" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J348" t="s">
         <v>21</v>
@@ -21337,10 +21384,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B349" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C349" t="s">
         <v>97</v>
@@ -21354,12 +21401,14 @@
       <c r="F349" t="n">
         <v>3</v>
       </c>
-      <c r="G349"/>
+      <c r="G349" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H349" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I349" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J349" t="s">
         <v>21</v>
@@ -21388,10 +21437,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B350" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C350" t="s">
         <v>97</v>
@@ -21405,12 +21454,14 @@
       <c r="F350" t="n">
         <v>3</v>
       </c>
-      <c r="G350"/>
+      <c r="G350" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H350" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I350" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J350" t="s">
         <v>21</v>
@@ -21442,7 +21493,7 @@
         <v>492</v>
       </c>
       <c r="B351" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C351" t="s">
         <v>97</v>
@@ -21456,12 +21507,14 @@
       <c r="F351" t="n">
         <v>3</v>
       </c>
-      <c r="G351"/>
+      <c r="G351" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H351" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I351" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J351" t="s">
         <v>21</v>
@@ -21490,10 +21543,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B352" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C352" t="s">
         <v>97</v>
@@ -21507,12 +21560,14 @@
       <c r="F352" t="n">
         <v>3</v>
       </c>
-      <c r="G352"/>
+      <c r="G352" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H352" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I352" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J352" t="s">
         <v>21</v>
@@ -21541,10 +21596,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B353" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C353" t="s">
         <v>97</v>
@@ -21558,12 +21613,14 @@
       <c r="F353" t="n">
         <v>3</v>
       </c>
-      <c r="G353"/>
+      <c r="G353" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H353" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I353" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="J353" t="s">
         <v>21</v>
@@ -21592,7 +21649,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B354" t="s">
         <v>210</v>
@@ -21616,7 +21673,7 @@
         <v>211</v>
       </c>
       <c r="I354" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J354" t="s">
         <v>21</v>
@@ -21645,7 +21702,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B355" t="s">
         <v>210</v>
@@ -21669,7 +21726,7 @@
         <v>211</v>
       </c>
       <c r="I355" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J355" t="s">
         <v>21</v>
@@ -21722,7 +21779,7 @@
         <v>211</v>
       </c>
       <c r="I356" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J356" t="s">
         <v>21</v>
@@ -22653,7 +22710,7 @@
         <v>521</v>
       </c>
       <c r="B374" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C374" t="s">
         <v>32</v>
@@ -22706,7 +22763,7 @@
         <v>522</v>
       </c>
       <c r="B375" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C375" t="s">
         <v>32</v>
@@ -22759,7 +22816,7 @@
         <v>523</v>
       </c>
       <c r="B376" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C376" t="s">
         <v>32</v>
@@ -22812,7 +22869,7 @@
         <v>524</v>
       </c>
       <c r="B377" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C377" t="s">
         <v>32</v>
@@ -22827,7 +22884,7 @@
         <v>3</v>
       </c>
       <c r="G377" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H377" t="s">
         <v>27</v>
@@ -22836,7 +22893,7 @@
         <v>28</v>
       </c>
       <c r="J377" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K377" t="s">
         <v>21</v>
@@ -22865,7 +22922,7 @@
         <v>525</v>
       </c>
       <c r="B378" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C378" t="s">
         <v>32</v>
@@ -22918,7 +22975,7 @@
         <v>526</v>
       </c>
       <c r="B379" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C379" t="s">
         <v>32</v>
@@ -22971,7 +23028,7 @@
         <v>527</v>
       </c>
       <c r="B380" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C380" t="s">
         <v>32</v>
@@ -23024,7 +23081,7 @@
         <v>528</v>
       </c>
       <c r="B381" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C381" t="s">
         <v>32</v>
@@ -23077,7 +23134,7 @@
         <v>529</v>
       </c>
       <c r="B382" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C382" t="s">
         <v>32</v>
@@ -23130,7 +23187,7 @@
         <v>530</v>
       </c>
       <c r="B383" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C383" t="s">
         <v>32</v>
@@ -23183,7 +23240,7 @@
         <v>531</v>
       </c>
       <c r="B384" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C384" t="s">
         <v>32</v>
@@ -23675,7 +23732,7 @@
         <v>3</v>
       </c>
       <c r="G393" t="n">
-        <v>0.511111111111111</v>
+        <v>0.488888888888889</v>
       </c>
       <c r="H393" t="s">
         <v>27</v>
@@ -23728,7 +23785,7 @@
         <v>3</v>
       </c>
       <c r="G394" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H394" t="s">
         <v>27</v>
@@ -23781,7 +23838,7 @@
         <v>3</v>
       </c>
       <c r="G395" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H395" t="s">
         <v>27</v>
@@ -23834,7 +23891,7 @@
         <v>3</v>
       </c>
       <c r="G396" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H396" t="s">
         <v>27</v>
@@ -24773,7 +24830,7 @@
         <v>566</v>
       </c>
       <c r="B414" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C414" t="s">
         <v>26</v>
@@ -24794,7 +24851,7 @@
         <v>158</v>
       </c>
       <c r="I414" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J414" t="s">
         <v>21</v>
@@ -24826,7 +24883,7 @@
         <v>567</v>
       </c>
       <c r="B415" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C415" t="s">
         <v>26</v>
@@ -24847,7 +24904,7 @@
         <v>158</v>
       </c>
       <c r="I415" t="s">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="J415" t="s">
         <v>21</v>
@@ -24876,7 +24933,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B416" t="s">
         <v>118</v>
@@ -24893,8 +24950,8 @@
       <c r="F416" t="n">
         <v>3</v>
       </c>
-      <c r="G416" t="e">
-        <v>#NUM!</v>
+      <c r="G416" t="n">
+        <v>0.777777777777778</v>
       </c>
       <c r="H416" t="s">
         <v>27</v>
@@ -24903,10 +24960,10 @@
         <v>28</v>
       </c>
       <c r="J416" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K416" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L416" t="n">
         <v>49.1351344420367</v>
@@ -24929,7 +24986,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B417" t="s">
         <v>118</v>
@@ -24946,8 +25003,8 @@
       <c r="F417" t="n">
         <v>3</v>
       </c>
-      <c r="G417" t="e">
-        <v>#NUM!</v>
+      <c r="G417" t="n">
+        <v>0.844444444444444</v>
       </c>
       <c r="H417" t="s">
         <v>27</v>
@@ -24959,7 +25016,7 @@
         <v>20</v>
       </c>
       <c r="K417" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L417" t="n">
         <v>0</v>
@@ -24982,7 +25039,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B418" t="s">
         <v>157</v>
@@ -24999,8 +25056,8 @@
       <c r="F418" t="n">
         <v>1</v>
       </c>
-      <c r="G418" t="e">
-        <v>#NUM!</v>
+      <c r="G418" t="n">
+        <v>0.822222222222222</v>
       </c>
       <c r="H418" t="s">
         <v>158</v>
@@ -25012,7 +25069,7 @@
         <v>20</v>
       </c>
       <c r="K418" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L418" t="n">
         <v>100</v>
@@ -25035,7 +25092,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B419" t="s">
         <v>157</v>
@@ -25088,7 +25145,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B420" t="s">
         <v>94</v>
@@ -25101,7 +25158,9 @@
       </c>
       <c r="E420"/>
       <c r="F420"/>
-      <c r="G420"/>
+      <c r="G420" t="n">
+        <v>0.288888888888889</v>
+      </c>
       <c r="H420" t="s">
         <v>27</v>
       </c>
@@ -25109,7 +25168,7 @@
         <v>28</v>
       </c>
       <c r="J420" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K420" t="s">
         <v>20</v>
@@ -25135,7 +25194,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B421" t="s">
         <v>94</v>
@@ -25148,7 +25207,9 @@
       </c>
       <c r="E421"/>
       <c r="F421"/>
-      <c r="G421"/>
+      <c r="G421" t="n">
+        <v>0.244444444444444</v>
+      </c>
       <c r="H421" t="s">
         <v>27</v>
       </c>
@@ -25156,7 +25217,7 @@
         <v>28</v>
       </c>
       <c r="J421" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K421" t="s">
         <v>20</v>
@@ -25182,7 +25243,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B422" t="s">
         <v>94</v>
@@ -25195,7 +25256,9 @@
       </c>
       <c r="E422"/>
       <c r="F422"/>
-      <c r="G422"/>
+      <c r="G422" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H422" t="s">
         <v>27</v>
       </c>
@@ -25203,7 +25266,7 @@
         <v>28</v>
       </c>
       <c r="J422" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K422" t="s">
         <v>20</v>
@@ -25229,7 +25292,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B423" t="s">
         <v>94</v>
@@ -25242,7 +25305,9 @@
       </c>
       <c r="E423"/>
       <c r="F423"/>
-      <c r="G423"/>
+      <c r="G423" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H423" t="s">
         <v>27</v>
       </c>
@@ -25250,7 +25315,7 @@
         <v>28</v>
       </c>
       <c r="J423" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K423" t="s">
         <v>20</v>
@@ -25276,7 +25341,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B424" t="s">
         <v>94</v>
@@ -25289,7 +25354,9 @@
       </c>
       <c r="E424"/>
       <c r="F424"/>
-      <c r="G424"/>
+      <c r="G424" t="n">
+        <v>0.244444444444444</v>
+      </c>
       <c r="H424" t="s">
         <v>27</v>
       </c>
@@ -25297,7 +25364,7 @@
         <v>28</v>
       </c>
       <c r="J424" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K424" t="s">
         <v>20</v>
@@ -25323,7 +25390,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B425" t="s">
         <v>94</v>
@@ -25336,7 +25403,9 @@
       </c>
       <c r="E425"/>
       <c r="F425"/>
-      <c r="G425"/>
+      <c r="G425" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H425" t="s">
         <v>27</v>
       </c>
@@ -25344,7 +25413,7 @@
         <v>28</v>
       </c>
       <c r="J425" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K425" t="s">
         <v>20</v>
@@ -25370,7 +25439,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B426" t="s">
         <v>94</v>
@@ -25383,7 +25452,9 @@
       </c>
       <c r="E426"/>
       <c r="F426"/>
-      <c r="G426"/>
+      <c r="G426" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H426" t="s">
         <v>27</v>
       </c>
@@ -25391,7 +25462,7 @@
         <v>28</v>
       </c>
       <c r="J426" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K426" t="s">
         <v>20</v>
@@ -25417,10 +25488,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B427" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C427" t="s">
         <v>26</v>
@@ -25434,7 +25505,9 @@
       <c r="F427" t="n">
         <v>3</v>
       </c>
-      <c r="G427"/>
+      <c r="G427" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H427" t="s">
         <v>27</v>
       </c>
@@ -25442,7 +25515,7 @@
         <v>28</v>
       </c>
       <c r="J427" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K427" t="s">
         <v>20</v>
@@ -25468,10 +25541,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
+        <v>582</v>
+      </c>
+      <c r="B428" t="s">
         <v>581</v>
-      </c>
-      <c r="B428" t="s">
-        <v>580</v>
       </c>
       <c r="C428" t="s">
         <v>26</v>
@@ -25521,10 +25594,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B429" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C429" t="s">
         <v>26</v>
@@ -25574,10 +25647,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B430" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C430" t="s">
         <v>32</v>
@@ -25627,10 +25700,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B431" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C431" t="s">
         <v>97</v>
@@ -25680,10 +25753,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
+        <v>587</v>
+      </c>
+      <c r="B432" t="s">
         <v>586</v>
-      </c>
-      <c r="B432" t="s">
-        <v>585</v>
       </c>
       <c r="C432" t="s">
         <v>97</v>
@@ -25733,10 +25806,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B433" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C433" t="s">
         <v>26</v>
@@ -25751,7 +25824,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H433" t="s">
         <v>27</v>
@@ -25786,10 +25859,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
+        <v>590</v>
+      </c>
+      <c r="B434" t="s">
         <v>589</v>
-      </c>
-      <c r="B434" t="s">
-        <v>588</v>
       </c>
       <c r="C434" t="s">
         <v>26</v>
@@ -25803,7 +25876,9 @@
       <c r="F434" t="n">
         <v>2</v>
       </c>
-      <c r="G434"/>
+      <c r="G434" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H434" t="s">
         <v>27</v>
       </c>
@@ -25811,7 +25886,7 @@
         <v>28</v>
       </c>
       <c r="J434" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K434" t="s">
         <v>20</v>
@@ -25837,7 +25912,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B435" t="s">
         <v>106</v>
@@ -25855,13 +25930,13 @@
         <v>3</v>
       </c>
       <c r="G435" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H435" t="s">
         <v>107</v>
       </c>
       <c r="I435" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J435" t="s">
         <v>21</v>
@@ -25890,7 +25965,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B436" t="s">
         <v>106</v>
@@ -25908,13 +25983,13 @@
         <v>3</v>
       </c>
       <c r="G436" t="n">
-        <v>0.888888888888889</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H436" t="s">
         <v>107</v>
       </c>
       <c r="I436" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J436" t="s">
         <v>21</v>
@@ -25943,7 +26018,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B437" t="s">
         <v>106</v>
@@ -25961,13 +26036,13 @@
         <v>3</v>
       </c>
       <c r="G437" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H437" t="s">
         <v>107</v>
       </c>
       <c r="I437" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J437" t="s">
         <v>21</v>
@@ -25996,7 +26071,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B438" t="s">
         <v>106</v>
@@ -26020,7 +26095,7 @@
         <v>107</v>
       </c>
       <c r="I438" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J438" t="s">
         <v>21</v>
@@ -26049,7 +26124,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B439" t="s">
         <v>106</v>
@@ -26073,7 +26148,7 @@
         <v>107</v>
       </c>
       <c r="I439" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J439" t="s">
         <v>21</v>
@@ -26102,7 +26177,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B440" t="s">
         <v>106</v>
@@ -26126,7 +26201,7 @@
         <v>107</v>
       </c>
       <c r="I440" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J440" t="s">
         <v>21</v>
@@ -26155,7 +26230,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B441" t="s">
         <v>106</v>
@@ -26179,7 +26254,7 @@
         <v>107</v>
       </c>
       <c r="I441" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J441" t="s">
         <v>21</v>
@@ -26208,7 +26283,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B442" t="s">
         <v>106</v>
@@ -26226,13 +26301,13 @@
         <v>3</v>
       </c>
       <c r="G442" t="n">
-        <v>0.488888888888889</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="H442" t="s">
         <v>107</v>
       </c>
       <c r="I442" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J442" t="s">
         <v>21</v>
@@ -26261,7 +26336,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B443" t="s">
         <v>106</v>
@@ -26285,7 +26360,7 @@
         <v>107</v>
       </c>
       <c r="I443" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J443" t="s">
         <v>21</v>
@@ -26314,7 +26389,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B444" t="s">
         <v>106</v>
@@ -26338,7 +26413,7 @@
         <v>107</v>
       </c>
       <c r="I444" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J444" t="s">
         <v>21</v>
@@ -26367,7 +26442,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B445" t="s">
         <v>106</v>
@@ -26385,13 +26460,13 @@
         <v>3</v>
       </c>
       <c r="G445" t="n">
-        <v>0.533333333333333</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H445" t="s">
         <v>107</v>
       </c>
       <c r="I445" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J445" t="s">
         <v>21</v>
@@ -26420,7 +26495,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B446" t="s">
         <v>106</v>
@@ -26444,7 +26519,7 @@
         <v>107</v>
       </c>
       <c r="I446" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J446" t="s">
         <v>21</v>
@@ -26473,7 +26548,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B447" t="s">
         <v>106</v>
@@ -26497,7 +26572,7 @@
         <v>107</v>
       </c>
       <c r="I447" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J447" t="s">
         <v>21</v>
@@ -26526,7 +26601,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B448" t="s">
         <v>106</v>
@@ -26543,12 +26618,14 @@
       <c r="F448" t="n">
         <v>3</v>
       </c>
-      <c r="G448"/>
+      <c r="G448" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H448" t="s">
         <v>107</v>
       </c>
       <c r="I448" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J448" t="s">
         <v>21</v>
@@ -26601,7 +26678,7 @@
         <v>107</v>
       </c>
       <c r="I449" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J449" t="s">
         <v>21</v>
@@ -26633,7 +26710,7 @@
         <v>613</v>
       </c>
       <c r="B450" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C450" t="s">
         <v>26</v>
@@ -26648,7 +26725,7 @@
         <v>3</v>
       </c>
       <c r="G450" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H450" t="s">
         <v>158</v>
@@ -26686,7 +26763,7 @@
         <v>615</v>
       </c>
       <c r="B451" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C451" t="s">
         <v>26</v>
@@ -26739,7 +26816,7 @@
         <v>617</v>
       </c>
       <c r="B452" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C452" t="s">
         <v>26</v>
@@ -26792,7 +26869,7 @@
         <v>618</v>
       </c>
       <c r="B453" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C453" t="s">
         <v>26</v>
@@ -26845,7 +26922,7 @@
         <v>619</v>
       </c>
       <c r="B454" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C454" t="s">
         <v>26</v>
@@ -26898,7 +26975,7 @@
         <v>621</v>
       </c>
       <c r="B455" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C455" t="s">
         <v>26</v>
@@ -27171,7 +27248,7 @@
         <v>2</v>
       </c>
       <c r="G461" t="n">
-        <v>0.888888888888889</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H461" t="s">
         <v>27</v>
@@ -27209,7 +27286,7 @@
         <v>630</v>
       </c>
       <c r="B462" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C462" t="s">
         <v>26</v>
@@ -29914,7 +29991,9 @@
       <c r="F529" t="n">
         <v>2</v>
       </c>
-      <c r="G529"/>
+      <c r="G529" t="n">
+        <v>0.711111111111111</v>
+      </c>
       <c r="H529" t="s">
         <v>27</v>
       </c>
@@ -29922,10 +30001,10 @@
         <v>28</v>
       </c>
       <c r="J529" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K529" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L529" t="n">
         <v>34.6727712734646</v>
@@ -30284,7 +30363,7 @@
         <v>3</v>
       </c>
       <c r="G536" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H536" t="s">
         <v>27</v>
@@ -30390,7 +30469,7 @@
         <v>3</v>
       </c>
       <c r="G538" t="n">
-        <v>0.377777777777778</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="H538" t="s">
         <v>27</v>
@@ -30428,7 +30507,7 @@
         <v>720</v>
       </c>
       <c r="B539" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C539" t="s">
         <v>26</v>
@@ -30481,7 +30560,7 @@
         <v>721</v>
       </c>
       <c r="B540" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C540" t="s">
         <v>26</v>
@@ -30534,7 +30613,7 @@
         <v>722</v>
       </c>
       <c r="B541" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C541" t="s">
         <v>26</v>
@@ -30587,7 +30666,7 @@
         <v>724</v>
       </c>
       <c r="B542" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C542" t="s">
         <v>26</v>
@@ -30640,7 +30719,7 @@
         <v>725</v>
       </c>
       <c r="B543" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C543" t="s">
         <v>26</v>
@@ -30693,7 +30772,7 @@
         <v>726</v>
       </c>
       <c r="B544" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C544" t="s">
         <v>26</v>
@@ -30746,7 +30825,7 @@
         <v>727</v>
       </c>
       <c r="B545" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C545" t="s">
         <v>26</v>
@@ -30799,7 +30878,7 @@
         <v>728</v>
       </c>
       <c r="B546" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C546" t="s">
         <v>26</v>
@@ -30852,7 +30931,7 @@
         <v>729</v>
       </c>
       <c r="B547" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C547" t="s">
         <v>26</v>
@@ -30919,8 +30998,8 @@
       <c r="F548" t="n">
         <v>1</v>
       </c>
-      <c r="G548" t="e">
-        <v>#NUM!</v>
+      <c r="G548" t="n">
+        <v>0.666666666666667</v>
       </c>
       <c r="H548" t="s">
         <v>27</v>
@@ -30929,7 +31008,7 @@
         <v>28</v>
       </c>
       <c r="J548" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K548" t="s">
         <v>20</v>
@@ -30972,8 +31051,8 @@
       <c r="F549" t="n">
         <v>1</v>
       </c>
-      <c r="G549" t="e">
-        <v>#NUM!</v>
+      <c r="G549" t="n">
+        <v>0.888888888888889</v>
       </c>
       <c r="H549" t="s">
         <v>27</v>
@@ -30985,7 +31064,7 @@
         <v>20</v>
       </c>
       <c r="K549" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L549" t="n">
         <v>0</v>
@@ -31170,7 +31249,7 @@
         <v>738</v>
       </c>
       <c r="B553" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C553" t="s">
         <v>97</v>
@@ -31223,7 +31302,7 @@
         <v>739</v>
       </c>
       <c r="B554" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C554" t="s">
         <v>97</v>
@@ -31276,7 +31355,7 @@
         <v>740</v>
       </c>
       <c r="B555" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C555" t="s">
         <v>97</v>
@@ -31329,7 +31408,7 @@
         <v>741</v>
       </c>
       <c r="B556" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C556" t="s">
         <v>97</v>
@@ -31382,7 +31461,7 @@
         <v>742</v>
       </c>
       <c r="B557" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C557" t="s">
         <v>97</v>
@@ -31396,8 +31475,8 @@
       <c r="F557" t="n">
         <v>3</v>
       </c>
-      <c r="G557" t="e">
-        <v>#NUM!</v>
+      <c r="G557" t="n">
+        <v>0.533333333333333</v>
       </c>
       <c r="H557" t="s">
         <v>27</v>
@@ -31406,7 +31485,7 @@
         <v>28</v>
       </c>
       <c r="J557" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K557" t="s">
         <v>20</v>
@@ -31449,8 +31528,8 @@
       <c r="F558" t="n">
         <v>3</v>
       </c>
-      <c r="G558" t="e">
-        <v>#NUM!</v>
+      <c r="G558" t="n">
+        <v>0.422222222222222</v>
       </c>
       <c r="H558" t="s">
         <v>27</v>
@@ -31459,7 +31538,7 @@
         <v>28</v>
       </c>
       <c r="J558" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K558" t="s">
         <v>20</v>
@@ -31488,7 +31567,7 @@
         <v>744</v>
       </c>
       <c r="B559" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C559" t="s">
         <v>26</v>
@@ -31594,7 +31673,7 @@
         <v>746</v>
       </c>
       <c r="B561" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C561" t="s">
         <v>32</v>
@@ -31647,7 +31726,7 @@
         <v>747</v>
       </c>
       <c r="B562" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C562" t="s">
         <v>32</v>
@@ -32401,8 +32480,8 @@
       <c r="F576" t="n">
         <v>1</v>
       </c>
-      <c r="G576" t="e">
-        <v>#NUM!</v>
+      <c r="G576" t="n">
+        <v>0.666666666666667</v>
       </c>
       <c r="H576" t="s">
         <v>27</v>
@@ -32411,7 +32490,7 @@
         <v>28</v>
       </c>
       <c r="J576" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K576" t="s">
         <v>20</v>
@@ -32546,7 +32625,7 @@
         <v>770</v>
       </c>
       <c r="B579" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C579" t="s">
         <v>26</v>
@@ -33132,7 +33211,7 @@
         <v>785</v>
       </c>
       <c r="B593" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C593" t="s">
         <v>26</v>
@@ -33185,7 +33264,7 @@
         <v>786</v>
       </c>
       <c r="B594" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C594" t="s">
         <v>26</v>
@@ -33682,7 +33761,7 @@
         <v>800</v>
       </c>
       <c r="B605" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C605" t="s">
         <v>26</v>
@@ -33700,7 +33779,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H605" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I605" t="s">
         <v>28</v>
@@ -33735,7 +33814,7 @@
         <v>801</v>
       </c>
       <c r="B606" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C606" t="s">
         <v>26</v>
@@ -33753,7 +33832,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H606" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I606" t="s">
         <v>28</v>
@@ -33788,7 +33867,7 @@
         <v>802</v>
       </c>
       <c r="B607" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C607" t="s">
         <v>26</v>
@@ -33806,7 +33885,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H607" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I607" t="s">
         <v>28</v>
@@ -33841,7 +33920,7 @@
         <v>803</v>
       </c>
       <c r="B608" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C608" t="s">
         <v>26</v>
@@ -33859,7 +33938,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H608" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I608" t="s">
         <v>28</v>
@@ -34174,7 +34253,7 @@
         <v>3</v>
       </c>
       <c r="G614" t="n">
-        <v>0.866666666666667</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="H614" t="s">
         <v>27</v>
@@ -34347,7 +34426,7 @@
         <v>814</v>
       </c>
       <c r="B618" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C618" t="s">
         <v>97</v>
@@ -34400,7 +34479,7 @@
         <v>815</v>
       </c>
       <c r="B619" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C619" t="s">
         <v>97</v>
@@ -34414,8 +34493,8 @@
       <c r="F619" t="n">
         <v>3</v>
       </c>
-      <c r="G619" t="e">
-        <v>#NUM!</v>
+      <c r="G619" t="n">
+        <v>0.688888888888889</v>
       </c>
       <c r="H619" t="s">
         <v>27</v>
@@ -34424,7 +34503,7 @@
         <v>28</v>
       </c>
       <c r="J619" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K619" t="s">
         <v>20</v>
@@ -34453,7 +34532,7 @@
         <v>816</v>
       </c>
       <c r="B620" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C620" t="s">
         <v>97</v>
@@ -34467,8 +34546,8 @@
       <c r="F620" t="n">
         <v>3</v>
       </c>
-      <c r="G620" t="e">
-        <v>#NUM!</v>
+      <c r="G620" t="n">
+        <v>0.644444444444444</v>
       </c>
       <c r="H620" t="s">
         <v>27</v>
@@ -34477,7 +34556,7 @@
         <v>28</v>
       </c>
       <c r="J620" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K620" t="s">
         <v>20</v>
@@ -34812,7 +34891,7 @@
         <v>824</v>
       </c>
       <c r="B627" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C627" t="s">
         <v>97</v>
@@ -34865,7 +34944,7 @@
         <v>825</v>
       </c>
       <c r="B628" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C628" t="s">
         <v>97</v>
@@ -34918,7 +34997,7 @@
         <v>826</v>
       </c>
       <c r="B629" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C629" t="s">
         <v>97</v>
@@ -34971,7 +35050,7 @@
         <v>827</v>
       </c>
       <c r="B630" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C630" t="s">
         <v>97</v>
@@ -35024,7 +35103,7 @@
         <v>828</v>
       </c>
       <c r="B631" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C631" t="s">
         <v>97</v>
@@ -35038,8 +35117,8 @@
       <c r="F631" t="n">
         <v>2</v>
       </c>
-      <c r="G631" t="e">
-        <v>#NUM!</v>
+      <c r="G631" t="n">
+        <v>0.777777777777778</v>
       </c>
       <c r="H631" t="s">
         <v>211</v>
@@ -35048,10 +35127,10 @@
         <v>28</v>
       </c>
       <c r="J631" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K631" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L631" t="n">
         <v>0</v>
@@ -35200,7 +35279,7 @@
         <v>833</v>
       </c>
       <c r="B635" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C635" t="s">
         <v>26</v>
@@ -35253,7 +35332,7 @@
         <v>835</v>
       </c>
       <c r="B636" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C636" t="s">
         <v>26</v>
@@ -35267,8 +35346,8 @@
       <c r="F636" t="n">
         <v>2</v>
       </c>
-      <c r="G636" t="e">
-        <v>#NUM!</v>
+      <c r="G636" t="n">
+        <v>0.422222222222222</v>
       </c>
       <c r="H636" t="s">
         <v>158</v>
@@ -35306,7 +35385,7 @@
         <v>837</v>
       </c>
       <c r="B637" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C637" t="s">
         <v>26</v>
@@ -35680,7 +35759,7 @@
         <v>2</v>
       </c>
       <c r="G644" t="n">
-        <v>0.977777777777778</v>
+        <v>0.955555555555556</v>
       </c>
       <c r="H644" t="s">
         <v>27</v>
@@ -35733,7 +35812,7 @@
         <v>2</v>
       </c>
       <c r="G645" t="n">
-        <v>0.844444444444444</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H645" t="s">
         <v>27</v>
@@ -36104,7 +36183,7 @@
         <v>3</v>
       </c>
       <c r="G652" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H652" t="s">
         <v>27</v>
@@ -36369,7 +36448,7 @@
         <v>3</v>
       </c>
       <c r="G657" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H657" t="s">
         <v>27</v>
@@ -36422,7 +36501,7 @@
         <v>3</v>
       </c>
       <c r="G658" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H658" t="s">
         <v>27</v>
@@ -36475,7 +36554,7 @@
         <v>3</v>
       </c>
       <c r="G659" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H659" t="s">
         <v>27</v>
@@ -36581,7 +36660,7 @@
         <v>3</v>
       </c>
       <c r="G661" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H661" t="s">
         <v>27</v>
@@ -36687,7 +36766,7 @@
         <v>3</v>
       </c>
       <c r="G663" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H663" t="s">
         <v>27</v>
@@ -36740,7 +36819,7 @@
         <v>3</v>
       </c>
       <c r="G664" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H664" t="s">
         <v>27</v>
@@ -36799,7 +36878,7 @@
         <v>752</v>
       </c>
       <c r="I665" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J665" t="s">
         <v>21</v>
@@ -36852,7 +36931,7 @@
         <v>752</v>
       </c>
       <c r="I666" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J666" t="s">
         <v>21</v>
@@ -36905,7 +36984,7 @@
         <v>752</v>
       </c>
       <c r="I667" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J667" t="s">
         <v>21</v>
@@ -36990,7 +37069,7 @@
         <v>872</v>
       </c>
       <c r="B669" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C669" t="s">
         <v>97</v>
@@ -37181,7 +37260,7 @@
         <v>3</v>
       </c>
       <c r="G673" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H673" t="s">
         <v>27</v>
@@ -37234,7 +37313,7 @@
         <v>3</v>
       </c>
       <c r="G674" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H674" t="s">
         <v>27</v>
@@ -37287,7 +37366,7 @@
         <v>3</v>
       </c>
       <c r="G675" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H675" t="s">
         <v>27</v>
@@ -37296,7 +37375,7 @@
         <v>28</v>
       </c>
       <c r="J675" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K675" t="s">
         <v>21</v>
@@ -37340,7 +37419,7 @@
         <v>3</v>
       </c>
       <c r="G676" t="n">
-        <v>0.711111111111111</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H676" t="s">
         <v>27</v>
@@ -37352,7 +37431,7 @@
         <v>21</v>
       </c>
       <c r="K676" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L676" t="n">
         <v>96.2017524769695</v>
@@ -37393,7 +37472,7 @@
         <v>3</v>
       </c>
       <c r="G677" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H677" t="s">
         <v>27</v>
@@ -37446,7 +37525,7 @@
         <v>3</v>
       </c>
       <c r="G678" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H678" t="s">
         <v>27</v>
@@ -37499,7 +37578,7 @@
         <v>3</v>
       </c>
       <c r="G679" t="n">
-        <v>0.377777777777778</v>
+        <v>0.355555555555556</v>
       </c>
       <c r="H679" t="s">
         <v>27</v>
@@ -37658,7 +37737,7 @@
         <v>3</v>
       </c>
       <c r="G682" t="n">
-        <v>0.4</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H682" t="s">
         <v>27</v>
@@ -37711,7 +37790,7 @@
         <v>3</v>
       </c>
       <c r="G683" t="n">
-        <v>0.4</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H683" t="s">
         <v>27</v>
@@ -37764,7 +37843,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="n">
-        <v>0.533333333333333</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H684" t="s">
         <v>27</v>
@@ -37817,7 +37896,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="n">
-        <v>0.466666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H685" t="s">
         <v>27</v>
@@ -37870,7 +37949,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="n">
-        <v>0.488888888888889</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H686" t="s">
         <v>27</v>
@@ -38929,7 +39008,9 @@
       <c r="F706" t="n">
         <v>3</v>
       </c>
-      <c r="G706"/>
+      <c r="G706" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H706" t="s">
         <v>913</v>
       </c>
@@ -38937,7 +39018,7 @@
         <v>28</v>
       </c>
       <c r="J706" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K706" t="s">
         <v>20</v>
@@ -38980,7 +39061,9 @@
       <c r="F707" t="n">
         <v>3</v>
       </c>
-      <c r="G707"/>
+      <c r="G707" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H707" t="s">
         <v>913</v>
       </c>
@@ -38988,7 +39071,7 @@
         <v>28</v>
       </c>
       <c r="J707" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K707" t="s">
         <v>20</v>
@@ -39031,7 +39114,9 @@
       <c r="F708" t="n">
         <v>3</v>
       </c>
-      <c r="G708"/>
+      <c r="G708" t="n">
+        <v>0.311111111111111</v>
+      </c>
       <c r="H708" t="s">
         <v>913</v>
       </c>
@@ -39039,7 +39124,7 @@
         <v>28</v>
       </c>
       <c r="J708" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K708" t="s">
         <v>20</v>
@@ -39082,7 +39167,9 @@
       <c r="F709" t="n">
         <v>3</v>
       </c>
-      <c r="G709"/>
+      <c r="G709" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H709" t="s">
         <v>913</v>
       </c>
@@ -39090,7 +39177,7 @@
         <v>28</v>
       </c>
       <c r="J709" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K709" t="s">
         <v>20</v>
@@ -39133,7 +39220,9 @@
       <c r="F710" t="n">
         <v>3</v>
       </c>
-      <c r="G710"/>
+      <c r="G710" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H710" t="s">
         <v>913</v>
       </c>
@@ -39141,7 +39230,7 @@
         <v>28</v>
       </c>
       <c r="J710" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K710" t="s">
         <v>20</v>
@@ -39184,7 +39273,9 @@
       <c r="F711" t="n">
         <v>3</v>
       </c>
-      <c r="G711"/>
+      <c r="G711" t="n">
+        <v>0.577777777777778</v>
+      </c>
       <c r="H711" t="s">
         <v>913</v>
       </c>
@@ -39192,7 +39283,7 @@
         <v>28</v>
       </c>
       <c r="J711" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K711" t="s">
         <v>20</v>
@@ -39288,7 +39379,9 @@
       <c r="F713" t="n">
         <v>1</v>
       </c>
-      <c r="G713"/>
+      <c r="G713" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H713" t="s">
         <v>752</v>
       </c>
@@ -39339,7 +39432,9 @@
       <c r="F714" t="n">
         <v>1</v>
       </c>
-      <c r="G714"/>
+      <c r="G714" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="H714" t="s">
         <v>752</v>
       </c>
@@ -39390,7 +39485,9 @@
       <c r="F715" t="n">
         <v>1</v>
       </c>
-      <c r="G715"/>
+      <c r="G715" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H715" t="s">
         <v>752</v>
       </c>
@@ -39441,7 +39538,9 @@
       <c r="F716" t="n">
         <v>1</v>
       </c>
-      <c r="G716"/>
+      <c r="G716" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H716" t="s">
         <v>752</v>
       </c>
@@ -39492,7 +39591,9 @@
       <c r="F717" t="n">
         <v>1</v>
       </c>
-      <c r="G717"/>
+      <c r="G717" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H717" t="s">
         <v>752</v>
       </c>
@@ -39543,12 +39644,14 @@
       <c r="F718" t="n">
         <v>1</v>
       </c>
-      <c r="G718"/>
+      <c r="G718" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H718" t="s">
         <v>752</v>
       </c>
       <c r="I718" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="J718" t="s">
         <v>21</v>
@@ -39577,7 +39680,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B719" t="s">
         <v>790</v>
@@ -39594,12 +39697,14 @@
       <c r="F719" t="n">
         <v>1</v>
       </c>
-      <c r="G719"/>
+      <c r="G719" t="n">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H719" t="s">
         <v>752</v>
       </c>
       <c r="I719" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="J719" t="s">
         <v>21</v>
@@ -39628,7 +39733,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B720" t="s">
         <v>790</v>
@@ -39646,13 +39751,13 @@
         <v>1</v>
       </c>
       <c r="G720" t="n">
-        <v>0.755555555555556</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="H720" t="s">
         <v>752</v>
       </c>
       <c r="I720" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J720" t="s">
         <v>21</v>
@@ -39681,7 +39786,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B721" t="s">
         <v>790</v>
@@ -39698,12 +39803,14 @@
       <c r="F721" t="n">
         <v>1</v>
       </c>
-      <c r="G721"/>
+      <c r="G721" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H721" t="s">
         <v>752</v>
       </c>
       <c r="I721" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="J721" t="s">
         <v>21</v>
@@ -39732,10 +39839,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B722" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C722" t="s">
         <v>26</v>
@@ -39785,10 +39892,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B723" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C723" t="s">
         <v>26</v>
@@ -39838,10 +39945,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B724" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C724" t="s">
         <v>19</v>
@@ -39877,10 +39984,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
+        <v>941</v>
+      </c>
+      <c r="B725" t="s">
         <v>940</v>
-      </c>
-      <c r="B725" t="s">
-        <v>939</v>
       </c>
       <c r="C725" t="s">
         <v>19</v>
@@ -39916,10 +40023,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B726" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C726" t="s">
         <v>19</v>
@@ -39955,10 +40062,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B727" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C727" t="s">
         <v>19</v>
@@ -39996,10 +40103,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
+        <v>945</v>
+      </c>
+      <c r="B728" t="s">
         <v>944</v>
-      </c>
-      <c r="B728" t="s">
-        <v>943</v>
       </c>
       <c r="C728" t="s">
         <v>19</v>
@@ -40037,7 +40144,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B729" t="s">
         <v>751</v>
@@ -40090,10 +40197,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B730" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C730" t="s">
         <v>32</v>
@@ -40143,10 +40250,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
+        <v>949</v>
+      </c>
+      <c r="B731" t="s">
         <v>948</v>
-      </c>
-      <c r="B731" t="s">
-        <v>947</v>
       </c>
       <c r="C731" t="s">
         <v>32</v>
@@ -40196,10 +40303,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B732" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C732" t="s">
         <v>32</v>
@@ -40249,10 +40356,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B733" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C733" t="s">
         <v>32</v>
@@ -40267,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="G733" t="n">
-        <v>0.977777777777778</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H733" t="s">
         <v>27</v>
@@ -40302,10 +40409,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B734" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C734" t="s">
         <v>32</v>
@@ -40320,7 +40427,7 @@
         <v>2</v>
       </c>
       <c r="G734" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H734" t="s">
         <v>27</v>
@@ -40355,10 +40462,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B735" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C735" t="s">
         <v>32</v>
@@ -40373,7 +40480,7 @@
         <v>2</v>
       </c>
       <c r="G735" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H735" t="s">
         <v>27</v>
@@ -40408,10 +40515,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B736" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C736" t="s">
         <v>32</v>
@@ -40461,7 +40568,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B737" t="s">
         <v>191</v>
@@ -40514,7 +40621,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B738" t="s">
         <v>191</v>

--- a/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Bull_Trout_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -3368,8 +3368,8 @@
       <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+      <c r="G4" t="n">
+        <v>0.55</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -3421,8 +3421,8 @@
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
+      <c r="G5" t="n">
+        <v>0.65</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3431,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -3824,9 +3824,7 @@
       <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
         <v>27</v>
       </c>
@@ -3877,9 +3875,7 @@
       <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
         <v>27</v>
       </c>
@@ -3930,9 +3926,7 @@
       <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G16"/>
       <c r="H16" t="s">
         <v>27</v>
       </c>
@@ -3983,9 +3977,7 @@
       <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
         <v>27</v>
       </c>
@@ -4036,9 +4028,7 @@
       <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
         <v>27</v>
       </c>
@@ -4090,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222222222222222</v>
+        <v>0.225</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
@@ -4142,9 +4132,7 @@
       <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>27</v>
       </c>
@@ -4408,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H25" t="s">
         <v>27</v>
@@ -4461,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
@@ -4514,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
@@ -4567,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
@@ -4620,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H29" t="s">
         <v>27</v>
@@ -4673,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.755555555555556</v>
+        <v>0.725</v>
       </c>
       <c r="H30" t="s">
         <v>64</v>
@@ -4726,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="s">
         <v>64</v>
@@ -4778,9 +4766,7 @@
       <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>64</v>
       </c>
@@ -4831,9 +4817,7 @@
       <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G33"/>
       <c r="H33" t="s">
         <v>27</v>
       </c>
@@ -4884,9 +4868,7 @@
       <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G34"/>
       <c r="H34" t="s">
         <v>27</v>
       </c>
@@ -4937,9 +4919,7 @@
       <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" t="s">
         <v>27</v>
       </c>
@@ -4990,9 +4970,7 @@
       <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G36"/>
       <c r="H36" t="s">
         <v>27</v>
       </c>
@@ -5043,9 +5021,7 @@
       <c r="F37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G37"/>
       <c r="H37" t="s">
         <v>27</v>
       </c>
@@ -5096,9 +5072,7 @@
       <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" t="s">
         <v>27</v>
       </c>
@@ -5150,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>0.711111111111111</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
@@ -5162,7 +5136,7 @@
         <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>12.5825765710022</v>
@@ -5203,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
@@ -5256,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="s">
         <v>27</v>
@@ -5268,7 +5242,7 @@
         <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>95.0608657364311</v>
@@ -5308,9 +5282,7 @@
       <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
         <v>27</v>
       </c>
@@ -5361,9 +5333,7 @@
       <c r="F43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G43"/>
       <c r="H43" t="s">
         <v>27</v>
       </c>
@@ -5414,9 +5384,7 @@
       <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
         <v>27</v>
       </c>
@@ -5467,9 +5435,7 @@
       <c r="F45" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>27</v>
       </c>
@@ -5520,9 +5486,7 @@
       <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>27</v>
       </c>
@@ -5573,9 +5537,7 @@
       <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G47"/>
       <c r="H47" t="s">
         <v>64</v>
       </c>
@@ -5668,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H49" t="s">
         <v>27</v>
@@ -5717,7 +5679,7 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -5769,9 +5731,7 @@
       <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="G51" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G51"/>
       <c r="H51" t="s">
         <v>27</v>
       </c>
@@ -5822,9 +5782,7 @@
       <c r="F52" t="n">
         <v>3</v>
       </c>
-      <c r="G52" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G52"/>
       <c r="H52" t="s">
         <v>27</v>
       </c>
@@ -5876,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -5928,9 +5886,7 @@
       <c r="F54" t="n">
         <v>3</v>
       </c>
-      <c r="G54" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G54"/>
       <c r="H54" t="s">
         <v>27</v>
       </c>
@@ -5981,9 +5937,7 @@
       <c r="F55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G55"/>
       <c r="H55" t="s">
         <v>27</v>
       </c>
@@ -6034,9 +5988,7 @@
       <c r="F56" t="n">
         <v>3</v>
       </c>
-      <c r="G56" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G56"/>
       <c r="H56" t="s">
         <v>107</v>
       </c>
@@ -6087,9 +6039,7 @@
       <c r="F57" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>27</v>
       </c>
@@ -6140,9 +6090,7 @@
       <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="G58" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>27</v>
       </c>
@@ -6193,9 +6141,7 @@
       <c r="F59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>27</v>
       </c>
@@ -6246,9 +6192,7 @@
       <c r="F60" t="n">
         <v>2</v>
       </c>
-      <c r="G60" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G60"/>
       <c r="H60" t="s">
         <v>27</v>
       </c>
@@ -6299,9 +6243,7 @@
       <c r="F61" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G61"/>
       <c r="H61" t="s">
         <v>27</v>
       </c>
@@ -6352,9 +6294,7 @@
       <c r="F62" t="n">
         <v>2</v>
       </c>
-      <c r="G62" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>27</v>
       </c>
@@ -6405,9 +6345,7 @@
       <c r="F63" t="n">
         <v>2</v>
       </c>
-      <c r="G63" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G63"/>
       <c r="H63" t="s">
         <v>27</v>
       </c>
@@ -6459,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -6512,7 +6450,7 @@
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
@@ -6564,9 +6502,7 @@
       <c r="F66" t="n">
         <v>3</v>
       </c>
-      <c r="G66" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G66"/>
       <c r="H66" t="s">
         <v>27</v>
       </c>
@@ -6617,9 +6553,7 @@
       <c r="F67" t="n">
         <v>3</v>
       </c>
-      <c r="G67" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G67"/>
       <c r="H67" t="s">
         <v>27</v>
       </c>
@@ -6671,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H68" t="s">
         <v>27</v>
@@ -6724,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -6777,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -6830,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H71" t="s">
         <v>27</v>
@@ -6883,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
@@ -6895,7 +6829,7 @@
         <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>98.1370600401239</v>
@@ -6936,7 +6870,7 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
@@ -6989,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H74" t="s">
         <v>27</v>
@@ -7042,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
@@ -7095,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H76" t="s">
         <v>27</v>
@@ -7147,9 +7081,7 @@
       <c r="F77" t="n">
         <v>2</v>
       </c>
-      <c r="G77" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G77"/>
       <c r="H77" t="s">
         <v>27</v>
       </c>
@@ -7200,9 +7132,7 @@
       <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="G78" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" t="s">
         <v>27</v>
       </c>
@@ -7253,9 +7183,7 @@
       <c r="F79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G79"/>
       <c r="H79" t="s">
         <v>27</v>
       </c>
@@ -7307,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H80" t="s">
         <v>27</v>
@@ -7360,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
@@ -7413,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
@@ -7466,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H83" t="s">
         <v>27</v>
@@ -7519,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -7572,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
@@ -7625,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H86" t="s">
         <v>27</v>
@@ -7678,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
@@ -7731,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
@@ -7784,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H89" t="s">
         <v>27</v>
@@ -7837,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -7890,7 +7818,7 @@
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
@@ -7943,7 +7871,7 @@
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="s">
         <v>27</v>
@@ -7952,7 +7880,7 @@
         <v>28</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
@@ -7996,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -8049,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H94" t="s">
         <v>27</v>
@@ -8102,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="s">
         <v>27</v>
@@ -8155,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H96" t="s">
         <v>158</v>
@@ -8208,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H97" t="s">
         <v>158</v>
@@ -8260,9 +8188,7 @@
       <c r="F98" t="n">
         <v>1</v>
       </c>
-      <c r="G98" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
         <v>158</v>
       </c>
@@ -8313,9 +8239,7 @@
       <c r="F99" t="n">
         <v>1</v>
       </c>
-      <c r="G99" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G99"/>
       <c r="H99" t="s">
         <v>158</v>
       </c>
@@ -8406,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H101" t="s">
         <v>170</v>
@@ -8458,9 +8382,7 @@
       <c r="F102" t="n">
         <v>1</v>
       </c>
-      <c r="G102" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G102"/>
       <c r="H102" t="s">
         <v>170</v>
       </c>
@@ -8512,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H103" t="s">
         <v>170</v>
@@ -8564,9 +8486,7 @@
       <c r="F104" t="n">
         <v>1</v>
       </c>
-      <c r="G104" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G104"/>
       <c r="H104" t="s">
         <v>170</v>
       </c>
@@ -8617,9 +8537,7 @@
       <c r="F105" t="n">
         <v>1</v>
       </c>
-      <c r="G105" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G105"/>
       <c r="H105" t="s">
         <v>170</v>
       </c>
@@ -8671,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H106" t="s">
         <v>27</v>
@@ -8724,7 +8642,7 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
@@ -8777,7 +8695,7 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -8830,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H109" t="s">
         <v>27</v>
@@ -8883,7 +8801,7 @@
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>0.511111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
@@ -8936,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
@@ -8989,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H112" t="s">
         <v>27</v>
@@ -9042,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="s">
         <v>27</v>
@@ -9095,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H114" t="s">
         <v>27</v>
@@ -9148,7 +9066,7 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H115" t="s">
         <v>27</v>
@@ -9200,9 +9118,7 @@
       <c r="F116" t="n">
         <v>2</v>
       </c>
-      <c r="G116" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G116"/>
       <c r="H116" t="s">
         <v>27</v>
       </c>
@@ -9254,7 +9170,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H117" t="s">
         <v>27</v>
@@ -9306,9 +9222,7 @@
       <c r="F118" t="n">
         <v>1</v>
       </c>
-      <c r="G118" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G118"/>
       <c r="H118" t="s">
         <v>27</v>
       </c>
@@ -9359,9 +9273,7 @@
       <c r="F119" t="n">
         <v>1</v>
       </c>
-      <c r="G119" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G119"/>
       <c r="H119" t="s">
         <v>27</v>
       </c>
@@ -9413,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
@@ -9425,7 +9337,7 @@
         <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>93.3825341858876</v>
@@ -9465,9 +9377,7 @@
       <c r="F121" t="n">
         <v>1</v>
       </c>
-      <c r="G121" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G121"/>
       <c r="H121" t="s">
         <v>27</v>
       </c>
@@ -9518,9 +9428,7 @@
       <c r="F122" t="n">
         <v>1</v>
       </c>
-      <c r="G122" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G122"/>
       <c r="H122" t="s">
         <v>27</v>
       </c>
@@ -9571,9 +9479,7 @@
       <c r="F123" t="n">
         <v>1</v>
       </c>
-      <c r="G123" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G123"/>
       <c r="H123" t="s">
         <v>27</v>
       </c>
@@ -9625,7 +9531,7 @@
         <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>0.266666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H124" t="s">
         <v>27</v>
@@ -9731,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H126" t="s">
         <v>27</v>
@@ -9783,9 +9689,7 @@
       <c r="F127" t="n">
         <v>3</v>
       </c>
-      <c r="G127" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G127"/>
       <c r="H127" t="s">
         <v>27</v>
       </c>
@@ -9837,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H128" t="s">
         <v>27</v>
@@ -9889,9 +9793,7 @@
       <c r="F129" t="n">
         <v>3</v>
       </c>
-      <c r="G129" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G129"/>
       <c r="H129" t="s">
         <v>27</v>
       </c>
@@ -9942,9 +9844,7 @@
       <c r="F130" t="n">
         <v>3</v>
       </c>
-      <c r="G130" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G130"/>
       <c r="H130" t="s">
         <v>27</v>
       </c>
@@ -9995,9 +9895,7 @@
       <c r="F131" t="n">
         <v>3</v>
       </c>
-      <c r="G131" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G131"/>
       <c r="H131" t="s">
         <v>27</v>
       </c>
@@ -10048,9 +9946,7 @@
       <c r="F132" t="n">
         <v>3</v>
       </c>
-      <c r="G132" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G132"/>
       <c r="H132" t="s">
         <v>27</v>
       </c>
@@ -10102,7 +9998,7 @@
         <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>0.355555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="s">
         <v>27</v>
@@ -10154,8 +10050,8 @@
       <c r="F134" t="n">
         <v>3</v>
       </c>
-      <c r="G134" t="e">
-        <v>#NUM!</v>
+      <c r="G134" t="n">
+        <v>0.4</v>
       </c>
       <c r="H134" t="s">
         <v>27</v>
@@ -10164,7 +10060,7 @@
         <v>28</v>
       </c>
       <c r="J134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K134" t="s">
         <v>20</v>
@@ -10207,9 +10103,7 @@
       <c r="F135" t="n">
         <v>1</v>
       </c>
-      <c r="G135" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G135"/>
       <c r="H135" t="s">
         <v>211</v>
       </c>
@@ -10260,9 +10154,7 @@
       <c r="F136" t="n">
         <v>3</v>
       </c>
-      <c r="G136" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G136"/>
       <c r="H136" t="s">
         <v>107</v>
       </c>
@@ -10313,9 +10205,7 @@
       <c r="F137" t="n">
         <v>3</v>
       </c>
-      <c r="G137" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G137"/>
       <c r="H137" t="s">
         <v>27</v>
       </c>
@@ -10366,9 +10256,7 @@
       <c r="F138" t="n">
         <v>3</v>
       </c>
-      <c r="G138" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G138"/>
       <c r="H138" t="s">
         <v>27</v>
       </c>
@@ -10419,9 +10307,7 @@
       <c r="F139" t="n">
         <v>3</v>
       </c>
-      <c r="G139" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G139"/>
       <c r="H139" t="s">
         <v>27</v>
       </c>
@@ -10472,9 +10358,7 @@
       <c r="F140" t="n">
         <v>3</v>
       </c>
-      <c r="G140" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G140"/>
       <c r="H140" t="s">
         <v>27</v>
       </c>
@@ -10525,9 +10409,7 @@
       <c r="F141" t="n">
         <v>3</v>
       </c>
-      <c r="G141" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G141"/>
       <c r="H141" t="s">
         <v>27</v>
       </c>
@@ -10579,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H142" t="s">
         <v>27</v>
@@ -10632,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H143" t="s">
         <v>27</v>
@@ -10685,7 +10567,7 @@
         <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="s">
         <v>27</v>
@@ -10737,9 +10619,7 @@
       <c r="F145" t="n">
         <v>2</v>
       </c>
-      <c r="G145" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G145"/>
       <c r="H145" t="s">
         <v>27</v>
       </c>
@@ -10790,9 +10670,7 @@
       <c r="F146" t="n">
         <v>3</v>
       </c>
-      <c r="G146" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" t="s">
         <v>27</v>
       </c>
@@ -10843,9 +10721,7 @@
       <c r="F147" t="n">
         <v>1</v>
       </c>
-      <c r="G147" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G147"/>
       <c r="H147" t="s">
         <v>27</v>
       </c>
@@ -10897,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>0.911111111111111</v>
+        <v>0.925</v>
       </c>
       <c r="H148" t="s">
         <v>27</v>
@@ -11002,9 +10878,7 @@
       <c r="F150" t="n">
         <v>3</v>
       </c>
-      <c r="G150" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G150"/>
       <c r="H150" t="s">
         <v>27</v>
       </c>
@@ -11055,9 +10929,7 @@
       <c r="F151" t="n">
         <v>2</v>
       </c>
-      <c r="G151" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G151"/>
       <c r="H151" t="s">
         <v>27</v>
       </c>
@@ -11108,9 +10980,7 @@
       <c r="F152" t="n">
         <v>2</v>
       </c>
-      <c r="G152" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G152"/>
       <c r="H152" t="s">
         <v>27</v>
       </c>
@@ -11161,9 +11031,7 @@
       <c r="F153" t="n">
         <v>2</v>
       </c>
-      <c r="G153" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G153"/>
       <c r="H153" t="s">
         <v>27</v>
       </c>
@@ -11214,9 +11082,7 @@
       <c r="F154" t="n">
         <v>2</v>
       </c>
-      <c r="G154" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G154"/>
       <c r="H154" t="s">
         <v>27</v>
       </c>
@@ -11267,9 +11133,7 @@
       <c r="F155" t="n">
         <v>2</v>
       </c>
-      <c r="G155" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G155"/>
       <c r="H155" t="s">
         <v>27</v>
       </c>
@@ -11320,9 +11184,7 @@
       <c r="F156" t="n">
         <v>3</v>
       </c>
-      <c r="G156" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G156"/>
       <c r="H156" t="s">
         <v>158</v>
       </c>
@@ -11373,9 +11235,7 @@
       <c r="F157" t="n">
         <v>3</v>
       </c>
-      <c r="G157" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G157"/>
       <c r="H157" t="s">
         <v>64</v>
       </c>
@@ -11426,9 +11286,7 @@
       <c r="F158" t="n">
         <v>3</v>
       </c>
-      <c r="G158" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G158"/>
       <c r="H158" t="s">
         <v>64</v>
       </c>
@@ -11479,9 +11337,7 @@
       <c r="F159" t="n">
         <v>3</v>
       </c>
-      <c r="G159" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G159"/>
       <c r="H159" t="s">
         <v>64</v>
       </c>
@@ -11530,9 +11386,7 @@
       <c r="F160" t="n">
         <v>3</v>
       </c>
-      <c r="G160" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G160"/>
       <c r="H160" t="s">
         <v>64</v>
       </c>
@@ -11583,9 +11437,7 @@
       <c r="F161" t="n">
         <v>3</v>
       </c>
-      <c r="G161" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G161"/>
       <c r="H161" t="s">
         <v>64</v>
       </c>
@@ -11636,9 +11488,7 @@
       <c r="F162" t="n">
         <v>3</v>
       </c>
-      <c r="G162" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G162"/>
       <c r="H162" t="s">
         <v>64</v>
       </c>
@@ -11689,9 +11539,7 @@
       <c r="F163" t="n">
         <v>3</v>
       </c>
-      <c r="G163" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G163"/>
       <c r="H163" t="s">
         <v>64</v>
       </c>
@@ -11742,9 +11590,7 @@
       <c r="F164" t="n">
         <v>3</v>
       </c>
-      <c r="G164" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G164"/>
       <c r="H164" t="s">
         <v>64</v>
       </c>
@@ -11796,7 +11642,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H165" t="s">
         <v>211</v>
@@ -11849,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>0.755555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="H166" t="s">
         <v>211</v>
@@ -11902,7 +11748,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>0.755555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="H167" t="s">
         <v>211</v>
@@ -11955,7 +11801,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H168" t="s">
         <v>211</v>
@@ -12008,7 +11854,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H169" t="s">
         <v>211</v>
@@ -12061,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="H170" t="s">
         <v>211</v>
@@ -12114,7 +11960,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H171" t="s">
         <v>211</v>
@@ -12167,7 +12013,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>0.933333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="H172" t="s">
         <v>211</v>
@@ -12220,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H173" t="s">
         <v>211</v>
@@ -12273,7 +12119,7 @@
         <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H174" t="s">
         <v>211</v>
@@ -12326,7 +12172,7 @@
         <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H175" t="s">
         <v>211</v>
@@ -12379,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="s">
         <v>275</v>
@@ -12432,7 +12278,7 @@
         <v>3</v>
       </c>
       <c r="G177" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H177" t="s">
         <v>275</v>
@@ -12485,7 +12331,7 @@
         <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H178" t="s">
         <v>275</v>
@@ -12538,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="G179" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H179" t="s">
         <v>275</v>
@@ -12591,7 +12437,7 @@
         <v>3</v>
       </c>
       <c r="G180" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H180" t="s">
         <v>275</v>
@@ -12644,7 +12490,7 @@
         <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H181" t="s">
         <v>275</v>
@@ -12697,7 +12543,7 @@
         <v>3</v>
       </c>
       <c r="G182" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="s">
         <v>275</v>
@@ -12750,7 +12596,7 @@
         <v>3</v>
       </c>
       <c r="G183" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="s">
         <v>275</v>
@@ -12803,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="G184" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H184" t="s">
         <v>27</v>
@@ -12856,7 +12702,7 @@
         <v>3</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H185" t="s">
         <v>27</v>
@@ -12909,7 +12755,7 @@
         <v>3</v>
       </c>
       <c r="G186" t="n">
-        <v>0.444444444444444</v>
+        <v>0.475</v>
       </c>
       <c r="H186" t="s">
         <v>27</v>
@@ -12962,7 +12808,7 @@
         <v>3</v>
       </c>
       <c r="G187" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="s">
         <v>27</v>
@@ -13015,7 +12861,7 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H188" t="s">
         <v>27</v>
@@ -13068,7 +12914,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H189" t="s">
         <v>27</v>
@@ -13121,7 +12967,7 @@
         <v>3</v>
       </c>
       <c r="G190" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="s">
         <v>27</v>
@@ -13174,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>0.711111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
@@ -13227,7 +13073,7 @@
         <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H192" t="s">
         <v>27</v>
@@ -13280,7 +13126,7 @@
         <v>3</v>
       </c>
       <c r="G193" t="n">
-        <v>0.711111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="H193" t="s">
         <v>27</v>
@@ -13333,7 +13179,7 @@
         <v>3</v>
       </c>
       <c r="G194" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H194" t="s">
         <v>27</v>
@@ -13386,7 +13232,7 @@
         <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H195" t="s">
         <v>27</v>
@@ -13439,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="G196" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H196" t="s">
         <v>27</v>
@@ -13491,9 +13337,7 @@
       <c r="F197" t="n">
         <v>2</v>
       </c>
-      <c r="G197" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G197"/>
       <c r="H197" t="s">
         <v>158</v>
       </c>
@@ -13544,8 +13388,8 @@
       <c r="F198" t="n">
         <v>2</v>
       </c>
-      <c r="G198" t="e">
-        <v>#NUM!</v>
+      <c r="G198" t="n">
+        <v>0.525</v>
       </c>
       <c r="H198" t="s">
         <v>158</v>
@@ -13597,9 +13441,7 @@
       <c r="F199" t="n">
         <v>3</v>
       </c>
-      <c r="G199" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G199"/>
       <c r="H199" t="s">
         <v>27</v>
       </c>
@@ -13650,9 +13492,7 @@
       <c r="F200" t="n">
         <v>3</v>
       </c>
-      <c r="G200" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G200"/>
       <c r="H200" t="s">
         <v>27</v>
       </c>
@@ -13703,9 +13543,7 @@
       <c r="F201" t="n">
         <v>2</v>
       </c>
-      <c r="G201" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G201"/>
       <c r="H201" t="s">
         <v>309</v>
       </c>
@@ -13756,9 +13594,7 @@
       <c r="F202" t="n">
         <v>3</v>
       </c>
-      <c r="G202" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G202"/>
       <c r="H202" t="s">
         <v>27</v>
       </c>
@@ -13809,9 +13645,7 @@
       <c r="F203" t="n">
         <v>3</v>
       </c>
-      <c r="G203" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G203"/>
       <c r="H203" t="s">
         <v>27</v>
       </c>
@@ -13862,9 +13696,7 @@
       <c r="F204" t="n">
         <v>3</v>
       </c>
-      <c r="G204" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G204"/>
       <c r="H204" t="s">
         <v>27</v>
       </c>
@@ -13915,9 +13747,7 @@
       <c r="F205" t="n">
         <v>3</v>
       </c>
-      <c r="G205" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G205"/>
       <c r="H205" t="s">
         <v>27</v>
       </c>
@@ -13968,9 +13798,7 @@
       <c r="F206" t="n">
         <v>3</v>
       </c>
-      <c r="G206" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G206"/>
       <c r="H206" t="s">
         <v>27</v>
       </c>
@@ -14021,9 +13849,7 @@
       <c r="F207" t="n">
         <v>3</v>
       </c>
-      <c r="G207" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G207"/>
       <c r="H207" t="s">
         <v>27</v>
       </c>
@@ -14074,9 +13900,7 @@
       <c r="F208" t="n">
         <v>3</v>
       </c>
-      <c r="G208" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G208"/>
       <c r="H208" t="s">
         <v>27</v>
       </c>
@@ -14127,9 +13951,7 @@
       <c r="F209" t="n">
         <v>3</v>
       </c>
-      <c r="G209" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G209"/>
       <c r="H209" t="s">
         <v>27</v>
       </c>
@@ -14180,9 +14002,7 @@
       <c r="F210" t="n">
         <v>3</v>
       </c>
-      <c r="G210" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G210"/>
       <c r="H210" t="s">
         <v>27</v>
       </c>
@@ -14233,9 +14053,7 @@
       <c r="F211" t="n">
         <v>3</v>
       </c>
-      <c r="G211" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G211"/>
       <c r="H211" t="s">
         <v>27</v>
       </c>
@@ -14286,9 +14104,7 @@
       <c r="F212" t="n">
         <v>3</v>
       </c>
-      <c r="G212" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G212"/>
       <c r="H212" t="s">
         <v>27</v>
       </c>
@@ -14339,9 +14155,7 @@
       <c r="F213" t="n">
         <v>3</v>
       </c>
-      <c r="G213" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G213"/>
       <c r="H213" t="s">
         <v>325</v>
       </c>
@@ -14392,9 +14206,7 @@
       <c r="F214" t="n">
         <v>2</v>
       </c>
-      <c r="G214" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G214"/>
       <c r="H214" t="s">
         <v>325</v>
       </c>
@@ -14445,9 +14257,7 @@
       <c r="F215" t="n">
         <v>2</v>
       </c>
-      <c r="G215" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G215"/>
       <c r="H215" t="s">
         <v>325</v>
       </c>
@@ -14498,9 +14308,7 @@
       <c r="F216" t="n">
         <v>2</v>
       </c>
-      <c r="G216" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G216"/>
       <c r="H216" t="s">
         <v>325</v>
       </c>
@@ -14551,9 +14359,7 @@
       <c r="F217" t="n">
         <v>2</v>
       </c>
-      <c r="G217" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G217"/>
       <c r="H217" t="s">
         <v>325</v>
       </c>
@@ -14604,9 +14410,7 @@
       <c r="F218" t="n">
         <v>2</v>
       </c>
-      <c r="G218" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G218"/>
       <c r="H218" t="s">
         <v>325</v>
       </c>
@@ -14657,9 +14461,7 @@
       <c r="F219" t="n">
         <v>3</v>
       </c>
-      <c r="G219" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G219"/>
       <c r="H219" t="s">
         <v>27</v>
       </c>
@@ -14710,8 +14512,8 @@
       <c r="F220" t="n">
         <v>3</v>
       </c>
-      <c r="G220" t="e">
-        <v>#NUM!</v>
+      <c r="G220" t="n">
+        <v>0.7</v>
       </c>
       <c r="H220" t="s">
         <v>27</v>
@@ -14720,7 +14522,7 @@
         <v>28</v>
       </c>
       <c r="J220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K220" t="s">
         <v>20</v>
@@ -14763,9 +14565,7 @@
       <c r="F221" t="n">
         <v>3</v>
       </c>
-      <c r="G221" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G221"/>
       <c r="H221" t="s">
         <v>107</v>
       </c>
@@ -14816,9 +14616,7 @@
       <c r="F222" t="n">
         <v>2</v>
       </c>
-      <c r="G222" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G222"/>
       <c r="H222" t="s">
         <v>27</v>
       </c>
@@ -14869,9 +14667,7 @@
       <c r="F223" t="n">
         <v>2</v>
       </c>
-      <c r="G223" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G223"/>
       <c r="H223" t="s">
         <v>27</v>
       </c>
@@ -14922,9 +14718,7 @@
       <c r="F224" t="n">
         <v>2</v>
       </c>
-      <c r="G224" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G224"/>
       <c r="H224" t="s">
         <v>27</v>
       </c>
@@ -14975,9 +14769,7 @@
       <c r="F225" t="n">
         <v>2</v>
       </c>
-      <c r="G225" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G225"/>
       <c r="H225" t="s">
         <v>27</v>
       </c>
@@ -15028,9 +14820,7 @@
       <c r="F226" t="n">
         <v>2</v>
       </c>
-      <c r="G226" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G226"/>
       <c r="H226" t="s">
         <v>27</v>
       </c>
@@ -15081,9 +14871,7 @@
       <c r="F227" t="n">
         <v>2</v>
       </c>
-      <c r="G227" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G227"/>
       <c r="H227" t="s">
         <v>27</v>
       </c>
@@ -15134,9 +14922,7 @@
       <c r="F228" t="n">
         <v>2</v>
       </c>
-      <c r="G228" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G228"/>
       <c r="H228" t="s">
         <v>27</v>
       </c>
@@ -15187,9 +14973,7 @@
       <c r="F229" t="n">
         <v>2</v>
       </c>
-      <c r="G229" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G229"/>
       <c r="H229" t="s">
         <v>27</v>
       </c>
@@ -15240,9 +15024,7 @@
       <c r="F230" t="n">
         <v>2</v>
       </c>
-      <c r="G230" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G230"/>
       <c r="H230" t="s">
         <v>27</v>
       </c>
@@ -15293,9 +15075,7 @@
       <c r="F231" t="n">
         <v>3</v>
       </c>
-      <c r="G231" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G231"/>
       <c r="H231" t="s">
         <v>27</v>
       </c>
@@ -15346,9 +15126,7 @@
       <c r="F232" t="n">
         <v>3</v>
       </c>
-      <c r="G232" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G232"/>
       <c r="H232" t="s">
         <v>27</v>
       </c>
@@ -15399,9 +15177,7 @@
       <c r="F233" t="n">
         <v>3</v>
       </c>
-      <c r="G233" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G233"/>
       <c r="H233" t="s">
         <v>27</v>
       </c>
@@ -15452,9 +15228,7 @@
       <c r="F234" t="n">
         <v>3</v>
       </c>
-      <c r="G234" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G234"/>
       <c r="H234" t="s">
         <v>27</v>
       </c>
@@ -15505,9 +15279,7 @@
       <c r="F235" t="n">
         <v>3</v>
       </c>
-      <c r="G235" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G235"/>
       <c r="H235" t="s">
         <v>27</v>
       </c>
@@ -15558,9 +15330,7 @@
       <c r="F236" t="n">
         <v>3</v>
       </c>
-      <c r="G236" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G236"/>
       <c r="H236" t="s">
         <v>27</v>
       </c>
@@ -15611,9 +15381,7 @@
       <c r="F237" t="n">
         <v>3</v>
       </c>
-      <c r="G237" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G237"/>
       <c r="H237" t="s">
         <v>27</v>
       </c>
@@ -15664,9 +15432,7 @@
       <c r="F238" t="n">
         <v>3</v>
       </c>
-      <c r="G238" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G238"/>
       <c r="H238" t="s">
         <v>27</v>
       </c>
@@ -15717,9 +15483,7 @@
       <c r="F239" t="n">
         <v>3</v>
       </c>
-      <c r="G239" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G239"/>
       <c r="H239" t="s">
         <v>27</v>
       </c>
@@ -15770,9 +15534,7 @@
       <c r="F240" t="n">
         <v>3</v>
       </c>
-      <c r="G240" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G240"/>
       <c r="H240" t="s">
         <v>27</v>
       </c>
@@ -15823,8 +15585,8 @@
       <c r="F241" t="n">
         <v>3</v>
       </c>
-      <c r="G241" t="e">
-        <v>#NUM!</v>
+      <c r="G241" t="n">
+        <v>0.475</v>
       </c>
       <c r="H241" t="s">
         <v>27</v>
@@ -15833,7 +15595,7 @@
         <v>28</v>
       </c>
       <c r="J241" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K241" t="s">
         <v>20</v>
@@ -15877,7 +15639,7 @@
         <v>3</v>
       </c>
       <c r="G242" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H242" t="s">
         <v>27</v>
@@ -15929,9 +15691,7 @@
       <c r="F243" t="n">
         <v>3</v>
       </c>
-      <c r="G243" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G243"/>
       <c r="H243" t="s">
         <v>27</v>
       </c>
@@ -15982,9 +15742,7 @@
       <c r="F244" t="n">
         <v>3</v>
       </c>
-      <c r="G244" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G244"/>
       <c r="H244" t="s">
         <v>158</v>
       </c>
@@ -16035,9 +15793,7 @@
       <c r="F245" t="n">
         <v>3</v>
       </c>
-      <c r="G245" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G245"/>
       <c r="H245" t="s">
         <v>363</v>
       </c>
@@ -16088,9 +15844,7 @@
       <c r="F246" t="n">
         <v>3</v>
       </c>
-      <c r="G246" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G246"/>
       <c r="H246" t="s">
         <v>363</v>
       </c>
@@ -16141,9 +15895,7 @@
       <c r="F247" t="n">
         <v>3</v>
       </c>
-      <c r="G247" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G247"/>
       <c r="H247" t="s">
         <v>27</v>
       </c>
@@ -16195,7 +15947,7 @@
         <v>3</v>
       </c>
       <c r="G248" t="n">
-        <v>0.288888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="H248" t="s">
         <v>368</v>
@@ -16248,7 +16000,7 @@
         <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H249" t="s">
         <v>368</v>
@@ -16301,7 +16053,7 @@
         <v>3</v>
       </c>
       <c r="G250" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H250" t="s">
         <v>368</v>
@@ -16354,7 +16106,7 @@
         <v>3</v>
       </c>
       <c r="G251" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H251" t="s">
         <v>368</v>
@@ -16407,7 +16159,7 @@
         <v>3</v>
       </c>
       <c r="G252" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H252" t="s">
         <v>368</v>
@@ -16460,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="G253" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H253" t="s">
         <v>368</v>
@@ -16513,7 +16265,7 @@
         <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H254" t="s">
         <v>368</v>
@@ -16566,7 +16318,7 @@
         <v>3</v>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H255" t="s">
         <v>368</v>
@@ -16618,9 +16370,7 @@
       <c r="F256" t="n">
         <v>3</v>
       </c>
-      <c r="G256" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G256"/>
       <c r="H256" t="s">
         <v>27</v>
       </c>
@@ -16671,9 +16421,7 @@
       <c r="F257" t="n">
         <v>3</v>
       </c>
-      <c r="G257" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G257"/>
       <c r="H257" t="s">
         <v>27</v>
       </c>
@@ -16724,9 +16472,7 @@
       <c r="F258" t="n">
         <v>3</v>
       </c>
-      <c r="G258" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G258"/>
       <c r="H258" t="s">
         <v>27</v>
       </c>
@@ -16777,9 +16523,7 @@
       <c r="F259" t="n">
         <v>3</v>
       </c>
-      <c r="G259" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G259"/>
       <c r="H259" t="s">
         <v>27</v>
       </c>
@@ -16830,9 +16574,7 @@
       <c r="F260" t="n">
         <v>3</v>
       </c>
-      <c r="G260" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G260"/>
       <c r="H260" t="s">
         <v>27</v>
       </c>
@@ -16883,9 +16625,7 @@
       <c r="F261" t="n">
         <v>3</v>
       </c>
-      <c r="G261" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G261"/>
       <c r="H261" t="s">
         <v>27</v>
       </c>
@@ -16936,9 +16676,7 @@
       <c r="F262" t="n">
         <v>3</v>
       </c>
-      <c r="G262" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G262"/>
       <c r="H262" t="s">
         <v>27</v>
       </c>
@@ -16989,9 +16727,7 @@
       <c r="F263" t="n">
         <v>3</v>
       </c>
-      <c r="G263" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G263"/>
       <c r="H263" t="s">
         <v>27</v>
       </c>
@@ -17042,9 +16778,7 @@
       <c r="F264" t="n">
         <v>3</v>
       </c>
-      <c r="G264" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G264"/>
       <c r="H264" t="s">
         <v>27</v>
       </c>
@@ -17095,9 +16829,7 @@
       <c r="F265" t="n">
         <v>3</v>
       </c>
-      <c r="G265" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G265"/>
       <c r="H265" t="s">
         <v>27</v>
       </c>
@@ -17148,9 +16880,7 @@
       <c r="F266" t="n">
         <v>3</v>
       </c>
-      <c r="G266" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G266"/>
       <c r="H266" t="s">
         <v>158</v>
       </c>
@@ -17201,8 +16931,8 @@
       <c r="F267" t="n">
         <v>3</v>
       </c>
-      <c r="G267" t="e">
-        <v>#NUM!</v>
+      <c r="G267" t="n">
+        <v>0.7</v>
       </c>
       <c r="H267" t="s">
         <v>158</v>
@@ -17211,7 +16941,7 @@
         <v>28</v>
       </c>
       <c r="J267" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K267" t="s">
         <v>20</v>
@@ -17254,9 +16984,7 @@
       <c r="F268" t="n">
         <v>3</v>
       </c>
-      <c r="G268" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G268"/>
       <c r="H268" t="s">
         <v>158</v>
       </c>
@@ -17307,8 +17035,8 @@
       <c r="F269" t="n">
         <v>3</v>
       </c>
-      <c r="G269" t="e">
-        <v>#NUM!</v>
+      <c r="G269" t="n">
+        <v>0.6</v>
       </c>
       <c r="H269" t="s">
         <v>158</v>
@@ -17317,7 +17045,7 @@
         <v>28</v>
       </c>
       <c r="J269" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K269" t="s">
         <v>20</v>
@@ -17360,9 +17088,7 @@
       <c r="F270" t="n">
         <v>3</v>
       </c>
-      <c r="G270" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G270"/>
       <c r="H270" t="s">
         <v>158</v>
       </c>
@@ -17413,9 +17139,7 @@
       <c r="F271" t="n">
         <v>3</v>
       </c>
-      <c r="G271" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G271"/>
       <c r="H271" t="s">
         <v>158</v>
       </c>
@@ -17466,8 +17190,8 @@
       <c r="F272" t="n">
         <v>3</v>
       </c>
-      <c r="G272" t="e">
-        <v>#NUM!</v>
+      <c r="G272" t="n">
+        <v>0.625</v>
       </c>
       <c r="H272" t="s">
         <v>27</v>
@@ -17476,7 +17200,7 @@
         <v>28</v>
       </c>
       <c r="J272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K272" t="s">
         <v>20</v>
@@ -17519,9 +17243,7 @@
       <c r="F273" t="n">
         <v>2</v>
       </c>
-      <c r="G273" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G273"/>
       <c r="H273" t="s">
         <v>398</v>
       </c>
@@ -17572,9 +17294,7 @@
       <c r="F274" t="n">
         <v>2</v>
       </c>
-      <c r="G274" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G274"/>
       <c r="H274" t="s">
         <v>398</v>
       </c>
@@ -17625,9 +17345,7 @@
       <c r="F275" t="n">
         <v>2</v>
       </c>
-      <c r="G275" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G275"/>
       <c r="H275" t="s">
         <v>398</v>
       </c>
@@ -17678,9 +17396,7 @@
       <c r="F276" t="n">
         <v>3</v>
       </c>
-      <c r="G276" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G276"/>
       <c r="H276" t="s">
         <v>158</v>
       </c>
@@ -18100,9 +17816,7 @@
       <c r="F286" t="n">
         <v>3</v>
       </c>
-      <c r="G286" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G286"/>
       <c r="H286" t="s">
         <v>107</v>
       </c>
@@ -18153,9 +17867,7 @@
       <c r="F287" t="n">
         <v>3</v>
       </c>
-      <c r="G287" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G287"/>
       <c r="H287" t="s">
         <v>27</v>
       </c>
@@ -18206,8 +17918,8 @@
       <c r="F288" t="n">
         <v>2</v>
       </c>
-      <c r="G288" t="n">
-        <v>0.955555555555556</v>
+      <c r="G288" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H288" t="s">
         <v>211</v>
@@ -18260,7 +17972,7 @@
         <v>2</v>
       </c>
       <c r="G289" t="n">
-        <v>0.577777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="s">
         <v>309</v>
@@ -18313,7 +18025,7 @@
         <v>2</v>
       </c>
       <c r="G290" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H290" t="s">
         <v>309</v>
@@ -18365,9 +18077,7 @@
       <c r="F291" t="n">
         <v>2</v>
       </c>
-      <c r="G291" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G291"/>
       <c r="H291" t="s">
         <v>309</v>
       </c>
@@ -18418,9 +18128,7 @@
       <c r="F292" t="n">
         <v>2</v>
       </c>
-      <c r="G292" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G292"/>
       <c r="H292" t="s">
         <v>309</v>
       </c>
@@ -18471,9 +18179,7 @@
       <c r="F293" t="n">
         <v>2</v>
       </c>
-      <c r="G293" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G293"/>
       <c r="H293" t="s">
         <v>309</v>
       </c>
@@ -18524,9 +18230,7 @@
       <c r="F294" t="n">
         <v>2</v>
       </c>
-      <c r="G294" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G294"/>
       <c r="H294" t="s">
         <v>309</v>
       </c>
@@ -18577,9 +18281,7 @@
       <c r="F295" t="n">
         <v>3</v>
       </c>
-      <c r="G295" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G295"/>
       <c r="H295" t="s">
         <v>398</v>
       </c>
@@ -18630,9 +18332,7 @@
       <c r="F296" t="n">
         <v>3</v>
       </c>
-      <c r="G296" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G296"/>
       <c r="H296" t="s">
         <v>27</v>
       </c>
@@ -18683,9 +18383,7 @@
       <c r="F297" t="n">
         <v>3</v>
       </c>
-      <c r="G297" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G297"/>
       <c r="H297" t="s">
         <v>158</v>
       </c>
@@ -18736,9 +18434,7 @@
       <c r="F298" t="n">
         <v>3</v>
       </c>
-      <c r="G298" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G298"/>
       <c r="H298" t="s">
         <v>158</v>
       </c>
@@ -18789,9 +18485,7 @@
       <c r="F299" t="n">
         <v>3</v>
       </c>
-      <c r="G299" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G299"/>
       <c r="H299" t="s">
         <v>158</v>
       </c>
@@ -18842,9 +18536,7 @@
       <c r="F300" t="n">
         <v>3</v>
       </c>
-      <c r="G300" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G300"/>
       <c r="H300" t="s">
         <v>158</v>
       </c>
@@ -18895,9 +18587,7 @@
       <c r="F301" t="n">
         <v>3</v>
       </c>
-      <c r="G301" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="G301"/>
       <c r="H301" t="s">
         <v>27</v>
       </c>
@@ -18905,7 +18595,7 @@
         <v>28</v>
       </c>
       <c r="J301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K301" t="s">
         <v>20</v>
@@ -18948,9 +18638,7 @@
       <c r="F302" t="n">
         <v>3</v>
       </c>
-      <c r="G302" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G302"/>
       <c r="H302" t="s">
         <v>27</v>
       </c>
@@ -19001,9 +18689,7 @@
       <c r="F303" t="n">
         <v>3</v>
       </c>
-      <c r="G303" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G303"/>
       <c r="H303" t="s">
         <v>27</v>
       </c>
@@ -19054,9 +18740,7 @@
       <c r="F304" t="n">
         <v>3</v>
       </c>
-      <c r="G304" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G304"/>
       <c r="H304" t="s">
         <v>27</v>
       </c>
@@ -19107,9 +18791,7 @@
       <c r="F305" t="n">
         <v>3</v>
       </c>
-      <c r="G305" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G305"/>
       <c r="H305" t="s">
         <v>27</v>
       </c>
@@ -19160,9 +18842,7 @@
       <c r="F306" t="n">
         <v>3</v>
       </c>
-      <c r="G306" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G306"/>
       <c r="H306" t="s">
         <v>27</v>
       </c>
@@ -19213,9 +18893,7 @@
       <c r="F307" t="n">
         <v>3</v>
       </c>
-      <c r="G307" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G307"/>
       <c r="H307" t="s">
         <v>27</v>
       </c>
@@ -19266,9 +18944,7 @@
       <c r="F308" t="n">
         <v>3</v>
       </c>
-      <c r="G308" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G308"/>
       <c r="H308" t="s">
         <v>27</v>
       </c>
@@ -19319,9 +18995,7 @@
       <c r="F309" t="n">
         <v>3</v>
       </c>
-      <c r="G309" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G309"/>
       <c r="H309" t="s">
         <v>27</v>
       </c>
@@ -19372,9 +19046,7 @@
       <c r="F310" t="n">
         <v>3</v>
       </c>
-      <c r="G310" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G310"/>
       <c r="H310" t="s">
         <v>27</v>
       </c>
@@ -19425,9 +19097,7 @@
       <c r="F311" t="n">
         <v>3</v>
       </c>
-      <c r="G311" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G311"/>
       <c r="H311" t="s">
         <v>27</v>
       </c>
@@ -19478,9 +19148,7 @@
       <c r="F312" t="n">
         <v>3</v>
       </c>
-      <c r="G312" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G312"/>
       <c r="H312" t="s">
         <v>27</v>
       </c>
@@ -19532,7 +19200,7 @@
         <v>3</v>
       </c>
       <c r="G313" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H313" t="s">
         <v>27</v>
@@ -19585,7 +19253,7 @@
         <v>3</v>
       </c>
       <c r="G314" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H314" t="s">
         <v>27</v>
@@ -19638,7 +19306,7 @@
         <v>3</v>
       </c>
       <c r="G315" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H315" t="s">
         <v>27</v>
@@ -19691,7 +19359,7 @@
         <v>3</v>
       </c>
       <c r="G316" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H316" t="s">
         <v>27</v>
@@ -19744,7 +19412,7 @@
         <v>3</v>
       </c>
       <c r="G317" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H317" t="s">
         <v>27</v>
@@ -19797,7 +19465,7 @@
         <v>3</v>
       </c>
       <c r="G318" t="n">
-        <v>0.577777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="H318" t="s">
         <v>27</v>
@@ -19849,9 +19517,7 @@
       <c r="F319" t="n">
         <v>3</v>
       </c>
-      <c r="G319" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G319"/>
       <c r="H319" t="s">
         <v>27</v>
       </c>
@@ -19902,9 +19568,7 @@
       <c r="F320" t="n">
         <v>1</v>
       </c>
-      <c r="G320" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G320"/>
       <c r="H320" t="s">
         <v>27</v>
       </c>
@@ -19955,9 +19619,7 @@
       <c r="F321" t="n">
         <v>3</v>
       </c>
-      <c r="G321" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G321"/>
       <c r="H321" t="s">
         <v>27</v>
       </c>
@@ -20060,7 +19722,7 @@
         <v>3</v>
       </c>
       <c r="G323" t="n">
-        <v>0.577777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="H323" t="s">
         <v>211</v>
@@ -20113,7 +19775,7 @@
         <v>3</v>
       </c>
       <c r="G324" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H324" t="s">
         <v>211</v>
@@ -20166,7 +19828,7 @@
         <v>3</v>
       </c>
       <c r="G325" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H325" t="s">
         <v>211</v>
@@ -20219,7 +19881,7 @@
         <v>3</v>
       </c>
       <c r="G326" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H326" t="s">
         <v>211</v>
@@ -20272,7 +19934,7 @@
         <v>3</v>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H327" t="s">
         <v>211</v>
@@ -20324,9 +19986,7 @@
       <c r="F328" t="n">
         <v>3</v>
       </c>
-      <c r="G328" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G328"/>
       <c r="H328" t="s">
         <v>158</v>
       </c>
@@ -20377,8 +20037,8 @@
       <c r="F329" t="n">
         <v>3</v>
       </c>
-      <c r="G329" t="e">
-        <v>#NUM!</v>
+      <c r="G329" t="n">
+        <v>0.45</v>
       </c>
       <c r="H329" t="s">
         <v>27</v>
@@ -20387,7 +20047,7 @@
         <v>28</v>
       </c>
       <c r="J329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K329" t="s">
         <v>20</v>
@@ -20430,9 +20090,7 @@
       <c r="F330" t="n">
         <v>3</v>
       </c>
-      <c r="G330" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G330"/>
       <c r="H330" t="s">
         <v>27</v>
       </c>
@@ -20483,9 +20141,7 @@
       <c r="F331" t="n">
         <v>3</v>
       </c>
-      <c r="G331" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G331"/>
       <c r="H331" t="s">
         <v>211</v>
       </c>
@@ -20536,9 +20192,7 @@
       <c r="F332" t="n">
         <v>2</v>
       </c>
-      <c r="G332" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G332"/>
       <c r="H332" t="s">
         <v>27</v>
       </c>
@@ -20589,9 +20243,7 @@
       <c r="F333" t="n">
         <v>2</v>
       </c>
-      <c r="G333" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G333"/>
       <c r="H333" t="s">
         <v>27</v>
       </c>
@@ -20642,9 +20294,7 @@
       <c r="F334" t="n">
         <v>2</v>
       </c>
-      <c r="G334" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G334"/>
       <c r="H334" t="s">
         <v>27</v>
       </c>
@@ -20695,9 +20345,7 @@
       <c r="F335" t="n">
         <v>2</v>
       </c>
-      <c r="G335" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G335"/>
       <c r="H335" t="s">
         <v>27</v>
       </c>
@@ -20748,9 +20396,7 @@
       <c r="F336" t="n">
         <v>2</v>
       </c>
-      <c r="G336" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G336"/>
       <c r="H336" t="s">
         <v>27</v>
       </c>
@@ -20801,9 +20447,7 @@
       <c r="F337" t="n">
         <v>2</v>
       </c>
-      <c r="G337" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G337"/>
       <c r="H337" t="s">
         <v>27</v>
       </c>
@@ -20854,9 +20498,7 @@
       <c r="F338" t="n">
         <v>1</v>
       </c>
-      <c r="G338" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G338"/>
       <c r="H338" t="s">
         <v>27</v>
       </c>
@@ -20907,9 +20549,7 @@
       <c r="F339" t="n">
         <v>2</v>
       </c>
-      <c r="G339" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G339"/>
       <c r="H339" t="s">
         <v>27</v>
       </c>
@@ -20960,9 +20600,7 @@
       <c r="F340" t="n">
         <v>2</v>
       </c>
-      <c r="G340" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G340"/>
       <c r="H340" t="s">
         <v>27</v>
       </c>
@@ -21137,7 +20775,7 @@
         <v>3</v>
       </c>
       <c r="G344" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H344" t="s">
         <v>363</v>
@@ -21190,7 +20828,7 @@
         <v>3</v>
       </c>
       <c r="G345" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H345" t="s">
         <v>363</v>
@@ -21243,7 +20881,7 @@
         <v>3</v>
       </c>
       <c r="G346" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H346" t="s">
         <v>363</v>
@@ -21296,7 +20934,7 @@
         <v>3</v>
       </c>
       <c r="G347" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H347" t="s">
         <v>363</v>
@@ -21349,7 +20987,7 @@
         <v>3</v>
       </c>
       <c r="G348" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H348" t="s">
         <v>363</v>
@@ -21402,7 +21040,7 @@
         <v>3</v>
       </c>
       <c r="G349" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H349" t="s">
         <v>363</v>
@@ -21455,7 +21093,7 @@
         <v>3</v>
       </c>
       <c r="G350" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H350" t="s">
         <v>363</v>
@@ -21508,7 +21146,7 @@
         <v>3</v>
       </c>
       <c r="G351" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H351" t="s">
         <v>363</v>
@@ -21561,7 +21199,7 @@
         <v>3</v>
       </c>
       <c r="G352" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H352" t="s">
         <v>363</v>
@@ -21614,7 +21252,7 @@
         <v>3</v>
       </c>
       <c r="G353" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H353" t="s">
         <v>363</v>
@@ -21666,8 +21304,8 @@
       <c r="F354" t="n">
         <v>1</v>
       </c>
-      <c r="G354" t="e">
-        <v>#NUM!</v>
+      <c r="G354" t="n">
+        <v>0.675</v>
       </c>
       <c r="H354" t="s">
         <v>211</v>
@@ -21719,8 +21357,8 @@
       <c r="F355" t="n">
         <v>1</v>
       </c>
-      <c r="G355" t="e">
-        <v>#NUM!</v>
+      <c r="G355" t="n">
+        <v>0.725</v>
       </c>
       <c r="H355" t="s">
         <v>211</v>
@@ -21772,8 +21410,8 @@
       <c r="F356" t="n">
         <v>1</v>
       </c>
-      <c r="G356" t="e">
-        <v>#NUM!</v>
+      <c r="G356" t="n">
+        <v>0.725</v>
       </c>
       <c r="H356" t="s">
         <v>211</v>
@@ -21825,8 +21463,8 @@
       <c r="F357" t="n">
         <v>1</v>
       </c>
-      <c r="G357" t="e">
-        <v>#NUM!</v>
+      <c r="G357" t="n">
+        <v>0.7</v>
       </c>
       <c r="H357" t="s">
         <v>211</v>
@@ -21878,9 +21516,7 @@
       <c r="F358" t="n">
         <v>1</v>
       </c>
-      <c r="G358" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G358"/>
       <c r="H358" t="s">
         <v>211</v>
       </c>
@@ -21931,9 +21567,7 @@
       <c r="F359" t="n">
         <v>1</v>
       </c>
-      <c r="G359" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G359"/>
       <c r="H359" t="s">
         <v>27</v>
       </c>
@@ -21985,7 +21619,7 @@
         <v>3</v>
       </c>
       <c r="G360" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H360" t="s">
         <v>27</v>
@@ -22038,7 +21672,7 @@
         <v>3</v>
       </c>
       <c r="G361" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H361" t="s">
         <v>27</v>
@@ -22091,7 +21725,7 @@
         <v>3</v>
       </c>
       <c r="G362" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H362" t="s">
         <v>27</v>
@@ -22144,7 +21778,7 @@
         <v>3</v>
       </c>
       <c r="G363" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H363" t="s">
         <v>27</v>
@@ -22197,7 +21831,7 @@
         <v>3</v>
       </c>
       <c r="G364" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H364" t="s">
         <v>27</v>
@@ -22250,7 +21884,7 @@
         <v>3</v>
       </c>
       <c r="G365" t="n">
-        <v>0.311111111111111</v>
+        <v>0.325</v>
       </c>
       <c r="H365" t="s">
         <v>27</v>
@@ -22303,7 +21937,7 @@
         <v>3</v>
       </c>
       <c r="G366" t="n">
-        <v>0.311111111111111</v>
+        <v>0.325</v>
       </c>
       <c r="H366" t="s">
         <v>27</v>
@@ -22356,7 +21990,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H367" t="s">
         <v>27</v>
@@ -22460,7 +22094,7 @@
         <v>3</v>
       </c>
       <c r="G369" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H369" t="s">
         <v>27</v>
@@ -22513,7 +22147,7 @@
         <v>3</v>
       </c>
       <c r="G370" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H370" t="s">
         <v>27</v>
@@ -22566,7 +22200,7 @@
         <v>3</v>
       </c>
       <c r="G371" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H371" t="s">
         <v>27</v>
@@ -22619,7 +22253,7 @@
         <v>3</v>
       </c>
       <c r="G372" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H372" t="s">
         <v>27</v>
@@ -22672,7 +22306,7 @@
         <v>3</v>
       </c>
       <c r="G373" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H373" t="s">
         <v>27</v>
@@ -22725,7 +22359,7 @@
         <v>3</v>
       </c>
       <c r="G374" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H374" t="s">
         <v>27</v>
@@ -22778,7 +22412,7 @@
         <v>3</v>
       </c>
       <c r="G375" t="n">
-        <v>0.666666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="H375" t="s">
         <v>27</v>
@@ -22831,7 +22465,7 @@
         <v>3</v>
       </c>
       <c r="G376" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H376" t="s">
         <v>27</v>
@@ -22884,7 +22518,7 @@
         <v>3</v>
       </c>
       <c r="G377" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H377" t="s">
         <v>27</v>
@@ -22937,7 +22571,7 @@
         <v>3</v>
       </c>
       <c r="G378" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H378" t="s">
         <v>27</v>
@@ -22990,7 +22624,7 @@
         <v>3</v>
       </c>
       <c r="G379" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H379" t="s">
         <v>27</v>
@@ -23043,7 +22677,7 @@
         <v>3</v>
       </c>
       <c r="G380" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H380" t="s">
         <v>27</v>
@@ -23096,7 +22730,7 @@
         <v>3</v>
       </c>
       <c r="G381" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H381" t="s">
         <v>27</v>
@@ -23149,7 +22783,7 @@
         <v>3</v>
       </c>
       <c r="G382" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H382" t="s">
         <v>27</v>
@@ -23202,7 +22836,7 @@
         <v>3</v>
       </c>
       <c r="G383" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H383" t="s">
         <v>27</v>
@@ -23255,7 +22889,7 @@
         <v>3</v>
       </c>
       <c r="G384" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H384" t="s">
         <v>27</v>
@@ -23308,7 +22942,7 @@
         <v>3</v>
       </c>
       <c r="G385" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H385" t="s">
         <v>27</v>
@@ -23361,7 +22995,7 @@
         <v>3</v>
       </c>
       <c r="G386" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H386" t="s">
         <v>27</v>
@@ -23414,7 +23048,7 @@
         <v>3</v>
       </c>
       <c r="G387" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H387" t="s">
         <v>27</v>
@@ -23467,7 +23101,7 @@
         <v>3</v>
       </c>
       <c r="G388" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H388" t="s">
         <v>27</v>
@@ -23520,7 +23154,7 @@
         <v>3</v>
       </c>
       <c r="G389" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H389" t="s">
         <v>27</v>
@@ -23573,7 +23207,7 @@
         <v>3</v>
       </c>
       <c r="G390" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H390" t="s">
         <v>27</v>
@@ -23626,7 +23260,7 @@
         <v>3</v>
       </c>
       <c r="G391" t="n">
-        <v>0.711111111111111</v>
+        <v>0.725</v>
       </c>
       <c r="H391" t="s">
         <v>27</v>
@@ -23679,7 +23313,7 @@
         <v>3</v>
       </c>
       <c r="G392" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H392" t="s">
         <v>27</v>
@@ -23732,7 +23366,7 @@
         <v>3</v>
       </c>
       <c r="G393" t="n">
-        <v>0.488888888888889</v>
+        <v>0.525</v>
       </c>
       <c r="H393" t="s">
         <v>27</v>
@@ -23785,7 +23419,7 @@
         <v>3</v>
       </c>
       <c r="G394" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H394" t="s">
         <v>27</v>
@@ -23838,7 +23472,7 @@
         <v>3</v>
       </c>
       <c r="G395" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H395" t="s">
         <v>27</v>
@@ -23847,7 +23481,7 @@
         <v>28</v>
       </c>
       <c r="J395" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K395" t="s">
         <v>21</v>
@@ -23891,7 +23525,7 @@
         <v>3</v>
       </c>
       <c r="G396" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H396" t="s">
         <v>27</v>
@@ -23944,7 +23578,7 @@
         <v>3</v>
       </c>
       <c r="G397" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H397" t="s">
         <v>27</v>
@@ -23997,7 +23631,7 @@
         <v>3</v>
       </c>
       <c r="G398" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H398" t="s">
         <v>27</v>
@@ -24050,7 +23684,7 @@
         <v>3</v>
       </c>
       <c r="G399" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H399" t="s">
         <v>27</v>
@@ -24103,7 +23737,7 @@
         <v>3</v>
       </c>
       <c r="G400" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H400" t="s">
         <v>27</v>
@@ -24156,7 +23790,7 @@
         <v>3</v>
       </c>
       <c r="G401" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H401" t="s">
         <v>27</v>
@@ -24421,7 +24055,7 @@
         <v>3</v>
       </c>
       <c r="G406" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H406" t="s">
         <v>27</v>
@@ -24474,7 +24108,7 @@
         <v>3</v>
       </c>
       <c r="G407" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H407" t="s">
         <v>27</v>
@@ -24527,7 +24161,7 @@
         <v>3</v>
       </c>
       <c r="G408" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H408" t="s">
         <v>27</v>
@@ -24580,7 +24214,7 @@
         <v>3</v>
       </c>
       <c r="G409" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H409" t="s">
         <v>27</v>
@@ -24632,9 +24266,7 @@
       <c r="F410" t="n">
         <v>2</v>
       </c>
-      <c r="G410" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G410"/>
       <c r="H410" t="s">
         <v>27</v>
       </c>
@@ -24685,9 +24317,7 @@
       <c r="F411" t="n">
         <v>2</v>
       </c>
-      <c r="G411" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G411"/>
       <c r="H411" t="s">
         <v>27</v>
       </c>
@@ -24738,9 +24368,7 @@
       <c r="F412" t="n">
         <v>2</v>
       </c>
-      <c r="G412" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G412"/>
       <c r="H412" t="s">
         <v>27</v>
       </c>
@@ -24791,9 +24419,7 @@
       <c r="F413" t="n">
         <v>2</v>
       </c>
-      <c r="G413" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G413"/>
       <c r="H413" t="s">
         <v>27</v>
       </c>
@@ -24844,8 +24470,8 @@
       <c r="F414" t="n">
         <v>2</v>
       </c>
-      <c r="G414" t="e">
-        <v>#NUM!</v>
+      <c r="G414" t="n">
+        <v>0.525</v>
       </c>
       <c r="H414" t="s">
         <v>158</v>
@@ -24897,9 +24523,7 @@
       <c r="F415" t="n">
         <v>3</v>
       </c>
-      <c r="G415" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G415"/>
       <c r="H415" t="s">
         <v>158</v>
       </c>
@@ -24951,7 +24575,7 @@
         <v>3</v>
       </c>
       <c r="G416" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H416" t="s">
         <v>27</v>
@@ -25004,7 +24628,7 @@
         <v>3</v>
       </c>
       <c r="G417" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H417" t="s">
         <v>27</v>
@@ -25057,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="G418" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H418" t="s">
         <v>158</v>
@@ -25109,9 +24733,7 @@
       <c r="F419" t="n">
         <v>1</v>
       </c>
-      <c r="G419" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G419"/>
       <c r="H419" t="s">
         <v>158</v>
       </c>
@@ -25159,7 +24781,7 @@
       <c r="E420"/>
       <c r="F420"/>
       <c r="G420" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H420" t="s">
         <v>27</v>
@@ -25208,7 +24830,7 @@
       <c r="E421"/>
       <c r="F421"/>
       <c r="G421" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H421" t="s">
         <v>27</v>
@@ -25257,7 +24879,7 @@
       <c r="E422"/>
       <c r="F422"/>
       <c r="G422" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H422" t="s">
         <v>27</v>
@@ -25306,7 +24928,7 @@
       <c r="E423"/>
       <c r="F423"/>
       <c r="G423" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H423" t="s">
         <v>27</v>
@@ -25355,7 +24977,7 @@
       <c r="E424"/>
       <c r="F424"/>
       <c r="G424" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H424" t="s">
         <v>27</v>
@@ -25404,7 +25026,7 @@
       <c r="E425"/>
       <c r="F425"/>
       <c r="G425" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H425" t="s">
         <v>27</v>
@@ -25453,7 +25075,7 @@
       <c r="E426"/>
       <c r="F426"/>
       <c r="G426" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H426" t="s">
         <v>27</v>
@@ -25506,7 +25128,7 @@
         <v>3</v>
       </c>
       <c r="G427" t="n">
-        <v>0.488888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="H427" t="s">
         <v>27</v>
@@ -25558,9 +25180,7 @@
       <c r="F428" t="n">
         <v>3</v>
       </c>
-      <c r="G428" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G428"/>
       <c r="H428" t="s">
         <v>27</v>
       </c>
@@ -25611,9 +25231,7 @@
       <c r="F429" t="n">
         <v>3</v>
       </c>
-      <c r="G429" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G429"/>
       <c r="H429" t="s">
         <v>27</v>
       </c>
@@ -25664,9 +25282,7 @@
       <c r="F430" t="n">
         <v>2</v>
       </c>
-      <c r="G430" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G430"/>
       <c r="H430" t="s">
         <v>27</v>
       </c>
@@ -25717,9 +25333,7 @@
       <c r="F431" t="n">
         <v>3</v>
       </c>
-      <c r="G431" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G431"/>
       <c r="H431" t="s">
         <v>27</v>
       </c>
@@ -25770,9 +25384,7 @@
       <c r="F432" t="n">
         <v>3</v>
       </c>
-      <c r="G432" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G432"/>
       <c r="H432" t="s">
         <v>27</v>
       </c>
@@ -25824,7 +25436,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H433" t="s">
         <v>27</v>
@@ -25877,7 +25489,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H434" t="s">
         <v>27</v>
@@ -25930,7 +25542,7 @@
         <v>3</v>
       </c>
       <c r="G435" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="H435" t="s">
         <v>107</v>
@@ -25983,7 +25595,7 @@
         <v>3</v>
       </c>
       <c r="G436" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H436" t="s">
         <v>107</v>
@@ -26036,7 +25648,7 @@
         <v>3</v>
       </c>
       <c r="G437" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="H437" t="s">
         <v>107</v>
@@ -26142,7 +25754,7 @@
         <v>3</v>
       </c>
       <c r="G439" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H439" t="s">
         <v>107</v>
@@ -26195,7 +25807,7 @@
         <v>3</v>
       </c>
       <c r="G440" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H440" t="s">
         <v>107</v>
@@ -26248,7 +25860,7 @@
         <v>3</v>
       </c>
       <c r="G441" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H441" t="s">
         <v>107</v>
@@ -26301,7 +25913,7 @@
         <v>3</v>
       </c>
       <c r="G442" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H442" t="s">
         <v>107</v>
@@ -26354,7 +25966,7 @@
         <v>3</v>
       </c>
       <c r="G443" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H443" t="s">
         <v>107</v>
@@ -26407,7 +26019,7 @@
         <v>3</v>
       </c>
       <c r="G444" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H444" t="s">
         <v>107</v>
@@ -26460,7 +26072,7 @@
         <v>3</v>
       </c>
       <c r="G445" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H445" t="s">
         <v>107</v>
@@ -26513,7 +26125,7 @@
         <v>3</v>
       </c>
       <c r="G446" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H446" t="s">
         <v>107</v>
@@ -26566,7 +26178,7 @@
         <v>3</v>
       </c>
       <c r="G447" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H447" t="s">
         <v>107</v>
@@ -26619,7 +26231,7 @@
         <v>3</v>
       </c>
       <c r="G448" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H448" t="s">
         <v>107</v>
@@ -26725,7 +26337,7 @@
         <v>3</v>
       </c>
       <c r="G450" t="n">
-        <v>0.577777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="H450" t="s">
         <v>158</v>
@@ -26777,9 +26389,7 @@
       <c r="F451" t="n">
         <v>3</v>
       </c>
-      <c r="G451" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G451"/>
       <c r="H451" t="s">
         <v>158</v>
       </c>
@@ -26830,9 +26440,7 @@
       <c r="F452" t="n">
         <v>3</v>
       </c>
-      <c r="G452" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G452"/>
       <c r="H452" t="s">
         <v>158</v>
       </c>
@@ -26883,9 +26491,7 @@
       <c r="F453" t="n">
         <v>3</v>
       </c>
-      <c r="G453" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G453"/>
       <c r="H453" t="s">
         <v>158</v>
       </c>
@@ -26936,9 +26542,7 @@
       <c r="F454" t="n">
         <v>3</v>
       </c>
-      <c r="G454" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G454"/>
       <c r="H454" t="s">
         <v>158</v>
       </c>
@@ -26989,9 +26593,7 @@
       <c r="F455" t="n">
         <v>3</v>
       </c>
-      <c r="G455" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G455"/>
       <c r="H455" t="s">
         <v>158</v>
       </c>
@@ -27248,7 +26850,7 @@
         <v>2</v>
       </c>
       <c r="G461" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H461" t="s">
         <v>27</v>
@@ -27300,8 +26902,8 @@
       <c r="F462" t="n">
         <v>2</v>
       </c>
-      <c r="G462" t="e">
-        <v>#NUM!</v>
+      <c r="G462" t="n">
+        <v>0.65</v>
       </c>
       <c r="H462" t="s">
         <v>158</v>
@@ -29992,7 +29594,7 @@
         <v>2</v>
       </c>
       <c r="G529" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H529" t="s">
         <v>27</v>
@@ -30004,7 +29606,7 @@
         <v>21</v>
       </c>
       <c r="K529" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L529" t="n">
         <v>34.6727712734646</v>
@@ -30044,9 +29646,7 @@
       <c r="F530" t="n">
         <v>3</v>
       </c>
-      <c r="G530" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G530"/>
       <c r="H530" t="s">
         <v>27</v>
       </c>
@@ -30098,7 +29698,7 @@
         <v>3</v>
       </c>
       <c r="G531" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H531" t="s">
         <v>27</v>
@@ -30151,7 +29751,7 @@
         <v>3</v>
       </c>
       <c r="G532" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H532" t="s">
         <v>27</v>
@@ -30204,7 +29804,7 @@
         <v>3</v>
       </c>
       <c r="G533" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H533" t="s">
         <v>27</v>
@@ -30257,7 +29857,7 @@
         <v>3</v>
       </c>
       <c r="G534" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H534" t="s">
         <v>27</v>
@@ -30310,7 +29910,7 @@
         <v>3</v>
       </c>
       <c r="G535" t="n">
-        <v>0.355555555555556</v>
+        <v>0.325</v>
       </c>
       <c r="H535" t="s">
         <v>27</v>
@@ -30363,7 +29963,7 @@
         <v>3</v>
       </c>
       <c r="G536" t="n">
-        <v>0.533333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H536" t="s">
         <v>27</v>
@@ -30416,7 +30016,7 @@
         <v>3</v>
       </c>
       <c r="G537" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H537" t="s">
         <v>27</v>
@@ -30469,7 +30069,7 @@
         <v>3</v>
       </c>
       <c r="G538" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H538" t="s">
         <v>27</v>
@@ -30521,9 +30121,7 @@
       <c r="F539" t="n">
         <v>2</v>
       </c>
-      <c r="G539" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G539"/>
       <c r="H539" t="s">
         <v>158</v>
       </c>
@@ -30574,8 +30172,8 @@
       <c r="F540" t="n">
         <v>2</v>
       </c>
-      <c r="G540" t="e">
-        <v>#NUM!</v>
+      <c r="G540" t="n">
+        <v>0.45</v>
       </c>
       <c r="H540" t="s">
         <v>158</v>
@@ -30584,7 +30182,7 @@
         <v>28</v>
       </c>
       <c r="J540" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K540" t="s">
         <v>20</v>
@@ -30627,8 +30225,8 @@
       <c r="F541" t="n">
         <v>2</v>
       </c>
-      <c r="G541" t="e">
-        <v>#NUM!</v>
+      <c r="G541" t="n">
+        <v>0.5</v>
       </c>
       <c r="H541" t="s">
         <v>158</v>
@@ -30680,8 +30278,8 @@
       <c r="F542" t="n">
         <v>2</v>
       </c>
-      <c r="G542" t="e">
-        <v>#NUM!</v>
+      <c r="G542" t="n">
+        <v>0.45</v>
       </c>
       <c r="H542" t="s">
         <v>158</v>
@@ -30733,8 +30331,8 @@
       <c r="F543" t="n">
         <v>2</v>
       </c>
-      <c r="G543" t="e">
-        <v>#NUM!</v>
+      <c r="G543" t="n">
+        <v>0.5</v>
       </c>
       <c r="H543" t="s">
         <v>158</v>
@@ -30786,8 +30384,8 @@
       <c r="F544" t="n">
         <v>2</v>
       </c>
-      <c r="G544" t="e">
-        <v>#NUM!</v>
+      <c r="G544" t="n">
+        <v>0.45</v>
       </c>
       <c r="H544" t="s">
         <v>158</v>
@@ -30839,8 +30437,8 @@
       <c r="F545" t="n">
         <v>2</v>
       </c>
-      <c r="G545" t="e">
-        <v>#NUM!</v>
+      <c r="G545" t="n">
+        <v>0.5</v>
       </c>
       <c r="H545" t="s">
         <v>158</v>
@@ -30892,8 +30490,8 @@
       <c r="F546" t="n">
         <v>2</v>
       </c>
-      <c r="G546" t="e">
-        <v>#NUM!</v>
+      <c r="G546" t="n">
+        <v>0.475</v>
       </c>
       <c r="H546" t="s">
         <v>158</v>
@@ -30945,8 +30543,8 @@
       <c r="F547" t="n">
         <v>2</v>
       </c>
-      <c r="G547" t="e">
-        <v>#NUM!</v>
+      <c r="G547" t="n">
+        <v>0.55</v>
       </c>
       <c r="H547" t="s">
         <v>158</v>
@@ -30999,7 +30597,7 @@
         <v>1</v>
       </c>
       <c r="G548" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H548" t="s">
         <v>27</v>
@@ -31052,7 +30650,7 @@
         <v>1</v>
       </c>
       <c r="G549" t="n">
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="H549" t="s">
         <v>27</v>
@@ -31104,9 +30702,7 @@
       <c r="F550" t="n">
         <v>2</v>
       </c>
-      <c r="G550" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G550"/>
       <c r="H550" t="s">
         <v>27</v>
       </c>
@@ -31157,9 +30753,7 @@
       <c r="F551" t="n">
         <v>3</v>
       </c>
-      <c r="G551" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G551"/>
       <c r="H551" t="s">
         <v>27</v>
       </c>
@@ -31210,9 +30804,7 @@
       <c r="F552" t="n">
         <v>3</v>
       </c>
-      <c r="G552" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G552"/>
       <c r="H552" t="s">
         <v>27</v>
       </c>
@@ -31263,9 +30855,7 @@
       <c r="F553" t="n">
         <v>3</v>
       </c>
-      <c r="G553" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G553"/>
       <c r="H553" t="s">
         <v>27</v>
       </c>
@@ -31316,9 +30906,7 @@
       <c r="F554" t="n">
         <v>3</v>
       </c>
-      <c r="G554" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G554"/>
       <c r="H554" t="s">
         <v>27</v>
       </c>
@@ -31475,8 +31063,8 @@
       <c r="F557" t="n">
         <v>3</v>
       </c>
-      <c r="G557" t="n">
-        <v>0.533333333333333</v>
+      <c r="G557" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H557" t="s">
         <v>27</v>
@@ -31485,7 +31073,7 @@
         <v>28</v>
       </c>
       <c r="J557" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K557" t="s">
         <v>20</v>
@@ -31528,8 +31116,8 @@
       <c r="F558" t="n">
         <v>3</v>
       </c>
-      <c r="G558" t="n">
-        <v>0.422222222222222</v>
+      <c r="G558" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H558" t="s">
         <v>27</v>
@@ -31538,7 +31126,7 @@
         <v>28</v>
       </c>
       <c r="J558" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K558" t="s">
         <v>20</v>
@@ -31581,9 +31169,7 @@
       <c r="F559" t="n">
         <v>3</v>
       </c>
-      <c r="G559" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G559"/>
       <c r="H559" t="s">
         <v>158</v>
       </c>
@@ -31634,9 +31220,7 @@
       <c r="F560" t="n">
         <v>2</v>
       </c>
-      <c r="G560" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G560"/>
       <c r="H560" t="s">
         <v>27</v>
       </c>
@@ -31687,9 +31271,7 @@
       <c r="F561" t="n">
         <v>3</v>
       </c>
-      <c r="G561" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G561"/>
       <c r="H561" t="s">
         <v>27</v>
       </c>
@@ -31740,9 +31322,7 @@
       <c r="F562" t="n">
         <v>3</v>
       </c>
-      <c r="G562" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G562"/>
       <c r="H562" t="s">
         <v>27</v>
       </c>
@@ -31845,7 +31425,7 @@
         <v>1</v>
       </c>
       <c r="G564" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H564" t="s">
         <v>752</v>
@@ -31897,8 +31477,8 @@
       <c r="F565" t="n">
         <v>3</v>
       </c>
-      <c r="G565" t="e">
-        <v>#NUM!</v>
+      <c r="G565" t="n">
+        <v>0.525</v>
       </c>
       <c r="H565" t="s">
         <v>27</v>
@@ -31907,7 +31487,7 @@
         <v>28</v>
       </c>
       <c r="J565" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K565" t="s">
         <v>20</v>
@@ -31950,8 +31530,8 @@
       <c r="F566" t="n">
         <v>3</v>
       </c>
-      <c r="G566" t="e">
-        <v>#NUM!</v>
+      <c r="G566" t="n">
+        <v>0.575</v>
       </c>
       <c r="H566" t="s">
         <v>27</v>
@@ -31960,7 +31540,7 @@
         <v>28</v>
       </c>
       <c r="J566" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K566" t="s">
         <v>20</v>
@@ -32003,8 +31583,8 @@
       <c r="F567" t="n">
         <v>3</v>
       </c>
-      <c r="G567" t="e">
-        <v>#NUM!</v>
+      <c r="G567" t="n">
+        <v>0.575</v>
       </c>
       <c r="H567" t="s">
         <v>27</v>
@@ -32013,7 +31593,7 @@
         <v>28</v>
       </c>
       <c r="J567" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K567" t="s">
         <v>20</v>
@@ -32056,8 +31636,8 @@
       <c r="F568" t="n">
         <v>3</v>
       </c>
-      <c r="G568" t="e">
-        <v>#NUM!</v>
+      <c r="G568" t="n">
+        <v>0.525</v>
       </c>
       <c r="H568" t="s">
         <v>27</v>
@@ -32066,7 +31646,7 @@
         <v>28</v>
       </c>
       <c r="J568" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K568" t="s">
         <v>20</v>
@@ -32109,9 +31689,7 @@
       <c r="F569" t="n">
         <v>3</v>
       </c>
-      <c r="G569" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G569"/>
       <c r="H569" t="s">
         <v>27</v>
       </c>
@@ -32162,9 +31740,7 @@
       <c r="F570" t="n">
         <v>3</v>
       </c>
-      <c r="G570" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G570"/>
       <c r="H570" t="s">
         <v>27</v>
       </c>
@@ -32215,9 +31791,7 @@
       <c r="F571" t="n">
         <v>3</v>
       </c>
-      <c r="G571" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G571"/>
       <c r="H571" t="s">
         <v>107</v>
       </c>
@@ -32268,9 +31842,7 @@
       <c r="F572" t="n">
         <v>3</v>
       </c>
-      <c r="G572" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G572"/>
       <c r="H572" t="s">
         <v>107</v>
       </c>
@@ -32321,9 +31893,7 @@
       <c r="F573" t="n">
         <v>3</v>
       </c>
-      <c r="G573" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G573"/>
       <c r="H573" t="s">
         <v>107</v>
       </c>
@@ -32374,9 +31944,7 @@
       <c r="F574" t="n">
         <v>3</v>
       </c>
-      <c r="G574" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G574"/>
       <c r="H574" t="s">
         <v>27</v>
       </c>
@@ -32427,9 +31995,7 @@
       <c r="F575" t="n">
         <v>3</v>
       </c>
-      <c r="G575" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G575"/>
       <c r="H575" t="s">
         <v>27</v>
       </c>
@@ -32481,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="G576" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H576" t="s">
         <v>27</v>
@@ -32533,9 +32099,7 @@
       <c r="F577" t="n">
         <v>1</v>
       </c>
-      <c r="G577" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G577"/>
       <c r="H577" t="s">
         <v>27</v>
       </c>
@@ -32586,9 +32150,7 @@
       <c r="F578" t="n">
         <v>1</v>
       </c>
-      <c r="G578" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G578"/>
       <c r="H578" t="s">
         <v>27</v>
       </c>
@@ -32639,8 +32201,8 @@
       <c r="F579" t="n">
         <v>2</v>
       </c>
-      <c r="G579" t="e">
-        <v>#NUM!</v>
+      <c r="G579" t="n">
+        <v>0.7</v>
       </c>
       <c r="H579" t="s">
         <v>158</v>
@@ -32649,7 +32211,7 @@
         <v>28</v>
       </c>
       <c r="J579" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K579" t="s">
         <v>20</v>
@@ -33225,9 +32787,7 @@
       <c r="F593" t="n">
         <v>3</v>
       </c>
-      <c r="G593" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G593"/>
       <c r="H593" t="s">
         <v>27</v>
       </c>
@@ -33278,9 +32838,7 @@
       <c r="F594" t="n">
         <v>3</v>
       </c>
-      <c r="G594" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G594"/>
       <c r="H594" t="s">
         <v>27</v>
       </c>
@@ -33331,9 +32889,7 @@
       <c r="F595" t="n">
         <v>3</v>
       </c>
-      <c r="G595" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G595"/>
       <c r="H595" t="s">
         <v>27</v>
       </c>
@@ -33384,9 +32940,7 @@
       <c r="F596" t="n">
         <v>1</v>
       </c>
-      <c r="G596" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G596"/>
       <c r="H596" t="s">
         <v>752</v>
       </c>
@@ -33437,9 +32991,7 @@
       <c r="F597" t="n">
         <v>1</v>
       </c>
-      <c r="G597" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G597"/>
       <c r="H597" t="s">
         <v>752</v>
       </c>
@@ -33775,9 +33327,7 @@
       <c r="F605" t="n">
         <v>1</v>
       </c>
-      <c r="G605" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G605"/>
       <c r="H605" t="s">
         <v>170</v>
       </c>
@@ -33828,9 +33378,7 @@
       <c r="F606" t="n">
         <v>1</v>
       </c>
-      <c r="G606" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G606"/>
       <c r="H606" t="s">
         <v>170</v>
       </c>
@@ -33881,9 +33429,7 @@
       <c r="F607" t="n">
         <v>1</v>
       </c>
-      <c r="G607" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G607"/>
       <c r="H607" t="s">
         <v>170</v>
       </c>
@@ -33934,9 +33480,7 @@
       <c r="F608" t="n">
         <v>1</v>
       </c>
-      <c r="G608" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G608"/>
       <c r="H608" t="s">
         <v>170</v>
       </c>
@@ -33987,9 +33531,7 @@
       <c r="F609" t="n">
         <v>3</v>
       </c>
-      <c r="G609" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G609"/>
       <c r="H609" t="s">
         <v>27</v>
       </c>
@@ -34040,9 +33582,7 @@
       <c r="F610" t="n">
         <v>3</v>
       </c>
-      <c r="G610" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G610"/>
       <c r="H610" t="s">
         <v>27</v>
       </c>
@@ -34093,9 +33633,7 @@
       <c r="F611" t="n">
         <v>3</v>
       </c>
-      <c r="G611" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G611"/>
       <c r="H611" t="s">
         <v>27</v>
       </c>
@@ -34146,9 +33684,7 @@
       <c r="F612" t="n">
         <v>3</v>
       </c>
-      <c r="G612" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G612"/>
       <c r="H612" t="s">
         <v>27</v>
       </c>
@@ -34199,9 +33735,7 @@
       <c r="F613" t="n">
         <v>3</v>
       </c>
-      <c r="G613" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G613"/>
       <c r="H613" t="s">
         <v>27</v>
       </c>
@@ -34253,7 +33787,7 @@
         <v>3</v>
       </c>
       <c r="G614" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H614" t="s">
         <v>27</v>
@@ -34305,9 +33839,7 @@
       <c r="F615" t="n">
         <v>3</v>
       </c>
-      <c r="G615" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G615"/>
       <c r="H615" t="s">
         <v>27</v>
       </c>
@@ -34440,8 +33972,8 @@
       <c r="F618" t="n">
         <v>3</v>
       </c>
-      <c r="G618" t="e">
-        <v>#NUM!</v>
+      <c r="G618" t="n">
+        <v>0.55</v>
       </c>
       <c r="H618" t="s">
         <v>27</v>
@@ -34450,7 +33982,7 @@
         <v>28</v>
       </c>
       <c r="J618" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K618" t="s">
         <v>20</v>
@@ -34494,7 +34026,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="n">
-        <v>0.688888888888889</v>
+        <v>0.7</v>
       </c>
       <c r="H619" t="s">
         <v>27</v>
@@ -34546,8 +34078,8 @@
       <c r="F620" t="n">
         <v>3</v>
       </c>
-      <c r="G620" t="n">
-        <v>0.644444444444444</v>
+      <c r="G620" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H620" t="s">
         <v>27</v>
@@ -34556,7 +34088,7 @@
         <v>28</v>
       </c>
       <c r="J620" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K620" t="s">
         <v>20</v>
@@ -34599,9 +34131,7 @@
       <c r="F621" t="n">
         <v>3</v>
       </c>
-      <c r="G621" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G621"/>
       <c r="H621" t="s">
         <v>27</v>
       </c>
@@ -34652,9 +34182,7 @@
       <c r="F622" t="n">
         <v>3</v>
       </c>
-      <c r="G622" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G622"/>
       <c r="H622" t="s">
         <v>27</v>
       </c>
@@ -34705,9 +34233,7 @@
       <c r="F623" t="n">
         <v>3</v>
       </c>
-      <c r="G623" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G623"/>
       <c r="H623" t="s">
         <v>27</v>
       </c>
@@ -34799,9 +34325,7 @@
       <c r="F625" t="n">
         <v>3</v>
       </c>
-      <c r="G625" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G625"/>
       <c r="H625" t="s">
         <v>27</v>
       </c>
@@ -34852,9 +34376,7 @@
       <c r="F626" t="n">
         <v>3</v>
       </c>
-      <c r="G626" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G626"/>
       <c r="H626" t="s">
         <v>27</v>
       </c>
@@ -34905,8 +34427,8 @@
       <c r="F627" t="n">
         <v>3</v>
       </c>
-      <c r="G627" t="e">
-        <v>#NUM!</v>
+      <c r="G627" t="n">
+        <v>0.575</v>
       </c>
       <c r="H627" t="s">
         <v>27</v>
@@ -34915,7 +34437,7 @@
         <v>28</v>
       </c>
       <c r="J627" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K627" t="s">
         <v>20</v>
@@ -34958,8 +34480,8 @@
       <c r="F628" t="n">
         <v>3</v>
       </c>
-      <c r="G628" t="e">
-        <v>#NUM!</v>
+      <c r="G628" t="n">
+        <v>0.5</v>
       </c>
       <c r="H628" t="s">
         <v>27</v>
@@ -34968,7 +34490,7 @@
         <v>28</v>
       </c>
       <c r="J628" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K628" t="s">
         <v>20</v>
@@ -35011,8 +34533,8 @@
       <c r="F629" t="n">
         <v>3</v>
       </c>
-      <c r="G629" t="e">
-        <v>#NUM!</v>
+      <c r="G629" t="n">
+        <v>0.6</v>
       </c>
       <c r="H629" t="s">
         <v>27</v>
@@ -35021,7 +34543,7 @@
         <v>28</v>
       </c>
       <c r="J629" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K629" t="s">
         <v>20</v>
@@ -35064,8 +34586,8 @@
       <c r="F630" t="n">
         <v>3</v>
       </c>
-      <c r="G630" t="e">
-        <v>#NUM!</v>
+      <c r="G630" t="n">
+        <v>0.6</v>
       </c>
       <c r="H630" t="s">
         <v>27</v>
@@ -35074,7 +34596,7 @@
         <v>28</v>
       </c>
       <c r="J630" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K630" t="s">
         <v>20</v>
@@ -35117,8 +34639,8 @@
       <c r="F631" t="n">
         <v>2</v>
       </c>
-      <c r="G631" t="n">
-        <v>0.777777777777778</v>
+      <c r="G631" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H631" t="s">
         <v>211</v>
@@ -35127,10 +34649,10 @@
         <v>28</v>
       </c>
       <c r="J631" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K631" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L631" t="n">
         <v>0</v>
@@ -35293,8 +34815,8 @@
       <c r="F635" t="n">
         <v>2</v>
       </c>
-      <c r="G635" t="e">
-        <v>#NUM!</v>
+      <c r="G635" t="n">
+        <v>0.55</v>
       </c>
       <c r="H635" t="s">
         <v>158</v>
@@ -35347,7 +34869,7 @@
         <v>2</v>
       </c>
       <c r="G636" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H636" t="s">
         <v>158</v>
@@ -35399,8 +34921,8 @@
       <c r="F637" t="n">
         <v>2</v>
       </c>
-      <c r="G637" t="e">
-        <v>#NUM!</v>
+      <c r="G637" t="n">
+        <v>0.45</v>
       </c>
       <c r="H637" t="s">
         <v>158</v>
@@ -35452,9 +34974,7 @@
       <c r="F638" t="n">
         <v>2</v>
       </c>
-      <c r="G638" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G638"/>
       <c r="H638" t="s">
         <v>27</v>
       </c>
@@ -35505,9 +35025,7 @@
       <c r="F639" t="n">
         <v>2</v>
       </c>
-      <c r="G639" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G639"/>
       <c r="H639" t="s">
         <v>27</v>
       </c>
@@ -35558,9 +35076,7 @@
       <c r="F640" t="n">
         <v>2</v>
       </c>
-      <c r="G640" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G640"/>
       <c r="H640" t="s">
         <v>27</v>
       </c>
@@ -35611,9 +35127,7 @@
       <c r="F641" t="n">
         <v>2</v>
       </c>
-      <c r="G641" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G641"/>
       <c r="H641" t="s">
         <v>27</v>
       </c>
@@ -35706,7 +35220,7 @@
         <v>3</v>
       </c>
       <c r="G643" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H643" t="s">
         <v>27</v>
@@ -35759,7 +35273,7 @@
         <v>2</v>
       </c>
       <c r="G644" t="n">
-        <v>0.955555555555556</v>
+        <v>0.95</v>
       </c>
       <c r="H644" t="s">
         <v>27</v>
@@ -35812,7 +35326,7 @@
         <v>2</v>
       </c>
       <c r="G645" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H645" t="s">
         <v>27</v>
@@ -35865,7 +35379,7 @@
         <v>3</v>
       </c>
       <c r="G646" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H646" t="s">
         <v>27</v>
@@ -35918,7 +35432,7 @@
         <v>3</v>
       </c>
       <c r="G647" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H647" t="s">
         <v>27</v>
@@ -35971,7 +35485,7 @@
         <v>3</v>
       </c>
       <c r="G648" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H648" t="s">
         <v>27</v>
@@ -36024,7 +35538,7 @@
         <v>3</v>
       </c>
       <c r="G649" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H649" t="s">
         <v>27</v>
@@ -36077,7 +35591,7 @@
         <v>3</v>
       </c>
       <c r="G650" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H650" t="s">
         <v>27</v>
@@ -36130,7 +35644,7 @@
         <v>3</v>
       </c>
       <c r="G651" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H651" t="s">
         <v>27</v>
@@ -36183,7 +35697,7 @@
         <v>3</v>
       </c>
       <c r="G652" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H652" t="s">
         <v>27</v>
@@ -36236,7 +35750,7 @@
         <v>3</v>
       </c>
       <c r="G653" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H653" t="s">
         <v>27</v>
@@ -36289,7 +35803,7 @@
         <v>3</v>
       </c>
       <c r="G654" t="n">
-        <v>0.444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H654" t="s">
         <v>27</v>
@@ -36342,7 +35856,7 @@
         <v>3</v>
       </c>
       <c r="G655" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H655" t="s">
         <v>27</v>
@@ -36395,7 +35909,7 @@
         <v>3</v>
       </c>
       <c r="G656" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H656" t="s">
         <v>27</v>
@@ -36448,7 +35962,7 @@
         <v>3</v>
       </c>
       <c r="G657" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H657" t="s">
         <v>27</v>
@@ -36457,7 +35971,7 @@
         <v>28</v>
       </c>
       <c r="J657" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K657" t="s">
         <v>21</v>
@@ -36501,7 +36015,7 @@
         <v>3</v>
       </c>
       <c r="G658" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H658" t="s">
         <v>27</v>
@@ -36510,7 +36024,7 @@
         <v>28</v>
       </c>
       <c r="J658" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K658" t="s">
         <v>21</v>
@@ -36554,7 +36068,7 @@
         <v>3</v>
       </c>
       <c r="G659" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H659" t="s">
         <v>27</v>
@@ -36607,7 +36121,7 @@
         <v>3</v>
       </c>
       <c r="G660" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H660" t="s">
         <v>27</v>
@@ -36660,7 +36174,7 @@
         <v>3</v>
       </c>
       <c r="G661" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H661" t="s">
         <v>27</v>
@@ -36713,7 +36227,7 @@
         <v>3</v>
       </c>
       <c r="G662" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H662" t="s">
         <v>27</v>
@@ -36766,7 +36280,7 @@
         <v>3</v>
       </c>
       <c r="G663" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H663" t="s">
         <v>27</v>
@@ -36819,7 +36333,7 @@
         <v>3</v>
       </c>
       <c r="G664" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H664" t="s">
         <v>27</v>
@@ -36872,7 +36386,7 @@
         <v>1</v>
       </c>
       <c r="G665" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H665" t="s">
         <v>752</v>
@@ -36925,7 +36439,7 @@
         <v>1</v>
       </c>
       <c r="G666" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H666" t="s">
         <v>752</v>
@@ -36978,7 +36492,7 @@
         <v>1</v>
       </c>
       <c r="G667" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H667" t="s">
         <v>752</v>
@@ -37031,7 +36545,7 @@
         <v>2</v>
       </c>
       <c r="G668" t="n">
-        <v>0.844444444444444</v>
+        <v>0.825</v>
       </c>
       <c r="H668" t="s">
         <v>752</v>
@@ -37083,9 +36597,7 @@
       <c r="F669" t="n">
         <v>3</v>
       </c>
-      <c r="G669" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G669"/>
       <c r="H669" t="s">
         <v>27</v>
       </c>
@@ -37313,7 +36825,7 @@
         <v>3</v>
       </c>
       <c r="G674" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H674" t="s">
         <v>27</v>
@@ -37366,7 +36878,7 @@
         <v>3</v>
       </c>
       <c r="G675" t="n">
-        <v>0.777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="H675" t="s">
         <v>27</v>
@@ -37375,7 +36887,7 @@
         <v>28</v>
       </c>
       <c r="J675" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K675" t="s">
         <v>21</v>
@@ -37419,7 +36931,7 @@
         <v>3</v>
       </c>
       <c r="G676" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H676" t="s">
         <v>27</v>
@@ -37472,7 +36984,7 @@
         <v>3</v>
       </c>
       <c r="G677" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H677" t="s">
         <v>27</v>
@@ -37525,7 +37037,7 @@
         <v>3</v>
       </c>
       <c r="G678" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H678" t="s">
         <v>27</v>
@@ -37578,7 +37090,7 @@
         <v>3</v>
       </c>
       <c r="G679" t="n">
-        <v>0.355555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="H679" t="s">
         <v>27</v>
@@ -37737,7 +37249,7 @@
         <v>3</v>
       </c>
       <c r="G682" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H682" t="s">
         <v>27</v>
@@ -37790,7 +37302,7 @@
         <v>3</v>
       </c>
       <c r="G683" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H683" t="s">
         <v>27</v>
@@ -37843,7 +37355,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H684" t="s">
         <v>27</v>
@@ -37896,7 +37408,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H685" t="s">
         <v>27</v>
@@ -37949,7 +37461,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H686" t="s">
         <v>27</v>
@@ -38002,7 +37514,7 @@
         <v>3</v>
       </c>
       <c r="G687" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H687" t="s">
         <v>27</v>
@@ -38055,7 +37567,7 @@
         <v>3</v>
       </c>
       <c r="G688" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H688" t="s">
         <v>27</v>
@@ -38108,7 +37620,7 @@
         <v>3</v>
       </c>
       <c r="G689" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H689" t="s">
         <v>27</v>
@@ -38161,7 +37673,7 @@
         <v>3</v>
       </c>
       <c r="G690" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H690" t="s">
         <v>27</v>
@@ -38214,7 +37726,7 @@
         <v>3</v>
       </c>
       <c r="G691" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H691" t="s">
         <v>27</v>
@@ -38267,7 +37779,7 @@
         <v>3</v>
       </c>
       <c r="G692" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H692" t="s">
         <v>27</v>
@@ -38320,7 +37832,7 @@
         <v>3</v>
       </c>
       <c r="G693" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H693" t="s">
         <v>27</v>
@@ -38373,7 +37885,7 @@
         <v>3</v>
       </c>
       <c r="G694" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H694" t="s">
         <v>27</v>
@@ -38426,7 +37938,7 @@
         <v>3</v>
       </c>
       <c r="G695" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H695" t="s">
         <v>27</v>
@@ -38479,7 +37991,7 @@
         <v>3</v>
       </c>
       <c r="G696" t="n">
-        <v>0.488888888888889</v>
+        <v>0.525</v>
       </c>
       <c r="H696" t="s">
         <v>27</v>
@@ -38532,7 +38044,7 @@
         <v>3</v>
       </c>
       <c r="G697" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H697" t="s">
         <v>27</v>
@@ -38585,7 +38097,7 @@
         <v>3</v>
       </c>
       <c r="G698" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H698" t="s">
         <v>27</v>
@@ -38638,7 +38150,7 @@
         <v>3</v>
       </c>
       <c r="G699" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H699" t="s">
         <v>27</v>
@@ -38691,7 +38203,7 @@
         <v>3</v>
       </c>
       <c r="G700" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H700" t="s">
         <v>27</v>
@@ -38744,7 +38256,7 @@
         <v>3</v>
       </c>
       <c r="G701" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H701" t="s">
         <v>27</v>
@@ -38797,7 +38309,7 @@
         <v>3</v>
       </c>
       <c r="G702" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H702" t="s">
         <v>27</v>
@@ -38903,7 +38415,7 @@
         <v>3</v>
       </c>
       <c r="G704" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H704" t="s">
         <v>913</v>
@@ -38956,7 +38468,7 @@
         <v>3</v>
       </c>
       <c r="G705" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H705" t="s">
         <v>913</v>
@@ -39009,7 +38521,7 @@
         <v>3</v>
       </c>
       <c r="G706" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H706" t="s">
         <v>913</v>
@@ -39062,7 +38574,7 @@
         <v>3</v>
       </c>
       <c r="G707" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H707" t="s">
         <v>913</v>
@@ -39115,7 +38627,7 @@
         <v>3</v>
       </c>
       <c r="G708" t="n">
-        <v>0.311111111111111</v>
+        <v>0.275</v>
       </c>
       <c r="H708" t="s">
         <v>913</v>
@@ -39168,7 +38680,7 @@
         <v>3</v>
       </c>
       <c r="G709" t="n">
-        <v>0.488888888888889</v>
+        <v>0.425</v>
       </c>
       <c r="H709" t="s">
         <v>913</v>
@@ -39221,7 +38733,7 @@
         <v>3</v>
       </c>
       <c r="G710" t="n">
-        <v>0.466666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="H710" t="s">
         <v>913</v>
@@ -39274,7 +38786,7 @@
         <v>3</v>
       </c>
       <c r="G711" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H711" t="s">
         <v>913</v>
@@ -39326,9 +38838,7 @@
       <c r="F712" t="n">
         <v>1</v>
       </c>
-      <c r="G712" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G712"/>
       <c r="H712" t="s">
         <v>752</v>
       </c>
@@ -39380,7 +38890,7 @@
         <v>1</v>
       </c>
       <c r="G713" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H713" t="s">
         <v>752</v>
@@ -39433,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="G714" t="n">
-        <v>0.444444444444444</v>
+        <v>0.475</v>
       </c>
       <c r="H714" t="s">
         <v>752</v>
@@ -39486,7 +38996,7 @@
         <v>1</v>
       </c>
       <c r="G715" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H715" t="s">
         <v>752</v>
@@ -39539,7 +39049,7 @@
         <v>1</v>
       </c>
       <c r="G716" t="n">
-        <v>0.488888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="H716" t="s">
         <v>752</v>
@@ -39592,7 +39102,7 @@
         <v>1</v>
       </c>
       <c r="G717" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H717" t="s">
         <v>752</v>
@@ -39645,7 +39155,7 @@
         <v>1</v>
       </c>
       <c r="G718" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H718" t="s">
         <v>752</v>
@@ -39698,7 +39208,7 @@
         <v>1</v>
       </c>
       <c r="G719" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H719" t="s">
         <v>752</v>
@@ -39751,7 +39261,7 @@
         <v>1</v>
       </c>
       <c r="G720" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H720" t="s">
         <v>752</v>
@@ -39804,7 +39314,7 @@
         <v>1</v>
       </c>
       <c r="G721" t="n">
-        <v>0.733333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H721" t="s">
         <v>752</v>
@@ -39856,9 +39366,7 @@
       <c r="F722" t="n">
         <v>2</v>
       </c>
-      <c r="G722" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G722"/>
       <c r="H722" t="s">
         <v>27</v>
       </c>
@@ -39909,8 +39417,8 @@
       <c r="F723" t="n">
         <v>2</v>
       </c>
-      <c r="G723" t="e">
-        <v>#NUM!</v>
+      <c r="G723" t="n">
+        <v>0.55</v>
       </c>
       <c r="H723" t="s">
         <v>27</v>
@@ -39919,7 +39427,7 @@
         <v>28</v>
       </c>
       <c r="J723" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K723" t="s">
         <v>20</v>
@@ -40161,9 +39669,7 @@
       <c r="F729" t="n">
         <v>1</v>
       </c>
-      <c r="G729" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G729"/>
       <c r="H729" t="s">
         <v>752</v>
       </c>
@@ -40215,7 +39721,7 @@
         <v>2</v>
       </c>
       <c r="G730" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H730" t="s">
         <v>27</v>
@@ -40268,7 +39774,7 @@
         <v>2</v>
       </c>
       <c r="G731" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H731" t="s">
         <v>27</v>
@@ -40280,7 +39786,7 @@
         <v>21</v>
       </c>
       <c r="K731" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L731" t="n">
         <v>3.08708129583914</v>
@@ -40321,7 +39827,7 @@
         <v>2</v>
       </c>
       <c r="G732" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H732" t="s">
         <v>27</v>
@@ -40330,7 +39836,7 @@
         <v>28</v>
       </c>
       <c r="J732" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K732" t="s">
         <v>21</v>
@@ -40374,7 +39880,7 @@
         <v>2</v>
       </c>
       <c r="G733" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H733" t="s">
         <v>27</v>
@@ -40427,7 +39933,7 @@
         <v>2</v>
       </c>
       <c r="G734" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H734" t="s">
         <v>27</v>
@@ -40480,7 +39986,7 @@
         <v>2</v>
       </c>
       <c r="G735" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H735" t="s">
         <v>27</v>
@@ -40532,9 +40038,7 @@
       <c r="F736" t="n">
         <v>2</v>
       </c>
-      <c r="G736" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G736"/>
       <c r="H736" t="s">
         <v>27</v>
       </c>
@@ -40585,9 +40089,7 @@
       <c r="F737" t="n">
         <v>1</v>
       </c>
-      <c r="G737" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G737"/>
       <c r="H737" t="s">
         <v>27</v>
       </c>
@@ -40638,9 +40140,7 @@
       <c r="F738" t="n">
         <v>1</v>
       </c>
-      <c r="G738" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G738"/>
       <c r="H738" t="s">
         <v>27</v>
       </c>
